--- a/スケジュール.xlsx
+++ b/スケジュール.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="42">
   <si>
     <t>勤怠管理システムWBS</t>
   </si>
@@ -116,34 +116,23 @@
     <t>`</t>
   </si>
   <si>
+    <t>周 可韻</t>
+  </si>
+  <si>
+    <t>山下　尊史</t>
+  </si>
+  <si>
     <t>基本情報登録</t>
   </si>
   <si>
-    <t>社員情報一覧</t>
-  </si>
-  <si>
-    <t>周 可韻</t>
-  </si>
-  <si>
-    <t>山下　尊史</t>
-  </si>
-  <si>
-    <t>勤怠情報・一覧/登録</t>
-  </si>
-  <si>
-    <t>勤怠情報一覧</t>
+    <t>社員情報一覧
+基本情報登録</t>
   </si>
   <si>
     <t>大石</t>
   </si>
   <si>
-    <t>勤怠情報登録</t>
-  </si>
-  <si>
     <t>ZIN MOE HTET</t>
-  </si>
-  <si>
-    <t>勤怠情報詳細</t>
   </si>
   <si>
     <t>王　陶錦</t>
@@ -164,9 +153,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="mm/dd"/>
   </numFmts>
   <fonts count="29">
@@ -734,28 +723,28 @@
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -881,7 +870,7 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -899,25 +888,50 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -927,7 +941,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1305,7 +1318,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1315,11 +1328,11 @@
     <col min="3" max="3" width="16.8833333333333" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.2166666666667" style="1" customWidth="1"/>
     <col min="5" max="5" width="6.66666666666667" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="11" width="6.55833333333333" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="9.55833333333333" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="18" width="6.55833333333333" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="2" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="11" width="6.55833333333333" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="9.55833333333333" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="18" width="6.55833333333333" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="2" style="1" customWidth="1"/>
     <col min="20" max="20" width="6.66666666666667" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="21" max="25" width="6.55833333333333" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="26" max="26" width="9.55833333333333" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
@@ -1499,7 +1512,7 @@
         <v>21</v>
       </c>
       <c r="J5" s="5"/>
-      <c r="K5" s="18" t="s">
+      <c r="K5" s="26" t="s">
         <v>22</v>
       </c>
       <c r="L5" s="4" t="s">
@@ -1513,10 +1526,10 @@
         <v>21</v>
       </c>
       <c r="P5" s="5"/>
-      <c r="Q5" s="18" t="s">
+      <c r="Q5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="R5" s="18" t="s">
+      <c r="R5" s="26" t="s">
         <v>24</v>
       </c>
       <c r="T5" s="4" t="s">
@@ -1530,7 +1543,7 @@
         <v>21</v>
       </c>
       <c r="X5" s="5"/>
-      <c r="Y5" s="18" t="s">
+      <c r="Y5" s="26" t="s">
         <v>22</v>
       </c>
       <c r="Z5" s="4" t="s">
@@ -1544,10 +1557,10 @@
         <v>21</v>
       </c>
       <c r="AD5" s="5"/>
-      <c r="AE5" s="18" t="s">
+      <c r="AE5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="AF5" s="18" t="s">
+      <c r="AF5" s="26" t="s">
         <v>24</v>
       </c>
       <c r="AH5" s="4" t="s">
@@ -1561,7 +1574,7 @@
         <v>21</v>
       </c>
       <c r="AL5" s="5"/>
-      <c r="AM5" s="18" t="s">
+      <c r="AM5" s="26" t="s">
         <v>22</v>
       </c>
       <c r="AN5" s="4" t="s">
@@ -1575,10 +1588,10 @@
         <v>21</v>
       </c>
       <c r="AR5" s="5"/>
-      <c r="AS5" s="18" t="s">
+      <c r="AS5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="AT5" s="18" t="s">
+      <c r="AT5" s="26" t="s">
         <v>24</v>
       </c>
       <c r="AV5" s="4" t="s">
@@ -1592,7 +1605,7 @@
         <v>21</v>
       </c>
       <c r="AZ5" s="5"/>
-      <c r="BA5" s="18" t="s">
+      <c r="BA5" s="26" t="s">
         <v>22</v>
       </c>
       <c r="BB5" s="4" t="s">
@@ -1606,10 +1619,10 @@
         <v>21</v>
       </c>
       <c r="BF5" s="5"/>
-      <c r="BG5" s="18" t="s">
+      <c r="BG5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="BH5" s="18" t="s">
+      <c r="BH5" s="26" t="s">
         <v>24</v>
       </c>
       <c r="BJ5" s="4" t="s">
@@ -1623,7 +1636,7 @@
         <v>21</v>
       </c>
       <c r="BN5" s="5"/>
-      <c r="BO5" s="18" t="s">
+      <c r="BO5" s="26" t="s">
         <v>22</v>
       </c>
       <c r="BP5" s="4" t="s">
@@ -1637,13 +1650,13 @@
         <v>21</v>
       </c>
       <c r="BT5" s="5"/>
-      <c r="BU5" s="18" t="s">
+      <c r="BU5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="BV5" s="18" t="s">
+      <c r="BV5" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="BW5" s="18" t="s">
+      <c r="BW5" s="26" t="s">
         <v>25</v>
       </c>
       <c r="BY5" s="4" t="s">
@@ -1657,7 +1670,7 @@
         <v>21</v>
       </c>
       <c r="CC5" s="5"/>
-      <c r="CD5" s="18" t="s">
+      <c r="CD5" s="26" t="s">
         <v>22</v>
       </c>
       <c r="CE5" s="4" t="s">
@@ -1671,10 +1684,10 @@
         <v>21</v>
       </c>
       <c r="CI5" s="5"/>
-      <c r="CJ5" s="18" t="s">
+      <c r="CJ5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="CK5" s="18" t="s">
+      <c r="CK5" s="26" t="s">
         <v>24</v>
       </c>
       <c r="CM5" s="4" t="s">
@@ -1688,7 +1701,7 @@
         <v>21</v>
       </c>
       <c r="CQ5" s="5"/>
-      <c r="CR5" s="18" t="s">
+      <c r="CR5" s="26" t="s">
         <v>22</v>
       </c>
       <c r="CS5" s="4" t="s">
@@ -1702,13 +1715,13 @@
         <v>21</v>
       </c>
       <c r="CW5" s="5"/>
-      <c r="CX5" s="18" t="s">
+      <c r="CX5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="CY5" s="18" t="s">
+      <c r="CY5" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="CZ5" s="18" t="s">
+      <c r="CZ5" s="26" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1948,8 +1961,8 @@
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="20" t="str">
+      <c r="K7" s="27"/>
+      <c r="L7" s="28" t="str">
         <f>F8</f>
         <v>周 可韻</v>
       </c>
@@ -1961,8 +1974,8 @@
       </c>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
       <c r="T7" s="10" t="str">
         <f t="shared" ref="T7:T12" si="0">F7</f>
         <v> 崔智博 </v>
@@ -1977,8 +1990,8 @@
       </c>
       <c r="W7" s="11"/>
       <c r="X7" s="11"/>
-      <c r="Y7" s="19"/>
-      <c r="Z7" s="20" t="str">
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="28" t="str">
         <f>T8</f>
         <v>周 可韻</v>
       </c>
@@ -1992,8 +2005,8 @@
       </c>
       <c r="AC7" s="11"/>
       <c r="AD7" s="11"/>
-      <c r="AE7" s="19"/>
-      <c r="AF7" s="19"/>
+      <c r="AE7" s="27"/>
+      <c r="AF7" s="27"/>
       <c r="AH7" s="10" t="str">
         <f t="shared" ref="AH7:AH12" si="5">T7</f>
         <v> 崔智博 </v>
@@ -2003,174 +2016,168 @@
         <v>44942</v>
       </c>
       <c r="AJ7" s="11">
-        <f t="shared" ref="AJ7:AJ12" si="7">AI7</f>
-        <v>44942</v>
+        <f>AI7+2</f>
+        <v>44944</v>
       </c>
       <c r="AK7" s="11"/>
       <c r="AL7" s="11"/>
-      <c r="AM7" s="19"/>
-      <c r="AN7" s="20" t="str">
+      <c r="AM7" s="27"/>
+      <c r="AN7" s="28" t="str">
         <f>AH8</f>
         <v>周 可韻</v>
       </c>
       <c r="AO7" s="11">
-        <f t="shared" ref="AO7:AO12" si="8">AJ7+1+3</f>
-        <v>44946</v>
+        <f>AJ7+1</f>
+        <v>44945</v>
       </c>
       <c r="AP7" s="11">
-        <f t="shared" ref="AP7:AP12" si="9">AO7</f>
+        <f>AO7+1</f>
         <v>44946</v>
       </c>
       <c r="AQ7" s="11"/>
       <c r="AR7" s="11"/>
-      <c r="AS7" s="19"/>
-      <c r="AT7" s="19"/>
+      <c r="AS7" s="27"/>
+      <c r="AT7" s="27"/>
       <c r="AV7" s="10" t="str">
-        <f t="shared" ref="AV7:AV12" si="10">AH7</f>
+        <f t="shared" ref="AV7:AV12" si="7">AH7</f>
         <v> 崔智博 </v>
       </c>
       <c r="AW7" s="11">
-        <f t="shared" ref="AW7:AW12" si="11">AP7+1</f>
-        <v>44947</v>
+        <f>AP7+1+2</f>
+        <v>44949</v>
       </c>
       <c r="AX7" s="11">
-        <f t="shared" ref="AX7:AX12" si="12">AW7</f>
-        <v>44947</v>
+        <f t="shared" ref="AX7:AX12" si="8">AW7</f>
+        <v>44949</v>
       </c>
       <c r="AY7" s="11"/>
       <c r="AZ7" s="11"/>
-      <c r="BA7" s="19"/>
-      <c r="BB7" s="20" t="str">
+      <c r="BA7" s="27"/>
+      <c r="BB7" s="28" t="str">
         <f>AV8</f>
         <v>周 可韻</v>
       </c>
       <c r="BC7" s="11">
-        <f t="shared" ref="BC7:BC12" si="13">AX7+1</f>
-        <v>44948</v>
+        <f t="shared" ref="BC7:BC12" si="9">AX7+1</f>
+        <v>44950</v>
       </c>
       <c r="BD7" s="11">
-        <f t="shared" ref="BD7:BD12" si="14">BC7</f>
-        <v>44948</v>
+        <f t="shared" ref="BD7:BD12" si="10">BC7</f>
+        <v>44950</v>
       </c>
       <c r="BE7" s="11"/>
       <c r="BF7" s="11"/>
-      <c r="BG7" s="19"/>
-      <c r="BH7" s="19"/>
+      <c r="BG7" s="27"/>
+      <c r="BH7" s="27"/>
       <c r="BJ7" s="10" t="str">
-        <f t="shared" ref="BJ7:BJ12" si="15">AV7</f>
+        <f t="shared" ref="BJ7:BJ12" si="11">AV7</f>
         <v> 崔智博 </v>
       </c>
       <c r="BK7" s="11">
-        <f t="shared" ref="BK7:BK12" si="16">BD7+1</f>
-        <v>44949</v>
+        <f t="shared" ref="BK7:BK12" si="12">BD7+1</f>
+        <v>44951</v>
       </c>
       <c r="BL7" s="11">
-        <f t="shared" ref="BL7:BL12" si="17">BK7</f>
-        <v>44949</v>
+        <f t="shared" ref="BL7:BL12" si="13">BK7</f>
+        <v>44951</v>
       </c>
       <c r="BM7" s="11"/>
       <c r="BN7" s="11"/>
-      <c r="BO7" s="19"/>
-      <c r="BP7" s="20" t="str">
+      <c r="BO7" s="27"/>
+      <c r="BP7" s="28" t="str">
         <f>BJ8</f>
         <v>周 可韻</v>
       </c>
       <c r="BQ7" s="11">
-        <f t="shared" ref="BQ7:BQ12" si="18">BL7+1</f>
-        <v>44950</v>
+        <f t="shared" ref="BQ7:BQ12" si="14">BL7+1</f>
+        <v>44952</v>
       </c>
       <c r="BR7" s="11">
-        <f t="shared" ref="BR7:BR12" si="19">BQ7</f>
-        <v>44950</v>
+        <f t="shared" ref="BR7:BR12" si="15">BQ7</f>
+        <v>44952</v>
       </c>
       <c r="BS7" s="11"/>
       <c r="BT7" s="11"/>
-      <c r="BU7" s="19"/>
-      <c r="BV7" s="19"/>
-      <c r="BW7" s="19" t="s">
+      <c r="BU7" s="27"/>
+      <c r="BV7" s="27"/>
+      <c r="BW7" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="BY7" s="21" t="str">
+      <c r="BY7" s="29" t="str">
         <f>E7</f>
         <v>チーム1</v>
       </c>
-      <c r="BZ7" s="22">
+      <c r="BZ7" s="30">
         <f>BQ7+1</f>
-        <v>44951</v>
-      </c>
-      <c r="CA7" s="22">
+        <v>44953</v>
+      </c>
+      <c r="CA7" s="30">
         <f>BZ7</f>
-        <v>44951</v>
-      </c>
-      <c r="CB7" s="22"/>
-      <c r="CC7" s="22"/>
-      <c r="CD7" s="27"/>
-      <c r="CE7" s="7" t="str">
+        <v>44953</v>
+      </c>
+      <c r="CB7" s="30"/>
+      <c r="CC7" s="30"/>
+      <c r="CD7" s="35"/>
+      <c r="CE7" s="20" t="str">
         <f>BY10</f>
         <v>チーム2</v>
       </c>
       <c r="CF7" s="11">
-        <f>CA7+1</f>
-        <v>44952</v>
+        <f>CA7+1+2</f>
+        <v>44956</v>
       </c>
       <c r="CG7" s="11">
         <f>CF7</f>
-        <v>44952</v>
+        <v>44956</v>
       </c>
       <c r="CH7" s="11"/>
       <c r="CI7" s="11"/>
-      <c r="CJ7" s="28"/>
-      <c r="CK7" s="27"/>
-      <c r="CM7" s="21" t="str">
+      <c r="CJ7" s="36"/>
+      <c r="CK7" s="35"/>
+      <c r="CM7" s="29" t="str">
         <f>BY7</f>
         <v>チーム1</v>
       </c>
-      <c r="CN7" s="22">
+      <c r="CN7" s="30">
         <f>CF7+1</f>
-        <v>44953</v>
-      </c>
-      <c r="CO7" s="22">
+        <v>44957</v>
+      </c>
+      <c r="CO7" s="30">
         <f>CN7</f>
-        <v>44953</v>
-      </c>
-      <c r="CP7" s="22"/>
-      <c r="CQ7" s="22"/>
-      <c r="CR7" s="27"/>
-      <c r="CS7" s="7" t="str">
+        <v>44957</v>
+      </c>
+      <c r="CP7" s="30"/>
+      <c r="CQ7" s="30"/>
+      <c r="CR7" s="35"/>
+      <c r="CS7" s="20" t="str">
         <f>CM7</f>
         <v>チーム1</v>
       </c>
       <c r="CT7" s="11">
-        <f>CO7+1</f>
-        <v>44954</v>
+        <f>CO7</f>
+        <v>44957</v>
       </c>
       <c r="CU7" s="11">
         <f>CT7</f>
-        <v>44954</v>
+        <v>44957</v>
       </c>
       <c r="CV7" s="11"/>
       <c r="CW7" s="11"/>
-      <c r="CX7" s="28"/>
-      <c r="CY7" s="28"/>
-      <c r="CZ7" s="28"/>
-      <c r="DB7" s="31"/>
+      <c r="CX7" s="36"/>
+      <c r="CY7" s="36"/>
+      <c r="CZ7" s="36"/>
+      <c r="DB7" s="39"/>
     </row>
     <row r="8" ht="18" customHeight="1" spans="2:104">
-      <c r="B8" s="7">
-        <v>2</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>33</v>
-      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
       <c r="E8" s="10" t="str">
         <f>定数!D5</f>
         <v>チーム1</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G8" s="11">
         <v>44936</v>
@@ -2180,8 +2187,8 @@
       </c>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="20" t="str">
+      <c r="K8" s="27"/>
+      <c r="L8" s="28" t="str">
         <f>F9</f>
         <v>山下　尊史</v>
       </c>
@@ -2193,8 +2200,8 @@
       </c>
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
       <c r="T8" s="10" t="str">
         <f t="shared" si="0"/>
         <v>周 可韻</v>
@@ -2209,8 +2216,8 @@
       </c>
       <c r="W8" s="11"/>
       <c r="X8" s="11"/>
-      <c r="Y8" s="19"/>
-      <c r="Z8" s="20" t="str">
+      <c r="Y8" s="27"/>
+      <c r="Z8" s="28" t="str">
         <f>T9</f>
         <v>山下　尊史</v>
       </c>
@@ -2224,8 +2231,8 @@
       </c>
       <c r="AC8" s="11"/>
       <c r="AD8" s="11"/>
-      <c r="AE8" s="19"/>
-      <c r="AF8" s="19"/>
+      <c r="AE8" s="27"/>
+      <c r="AF8" s="27"/>
       <c r="AH8" s="10" t="str">
         <f t="shared" si="5"/>
         <v>周 可韻</v>
@@ -2235,133 +2242,129 @@
         <v>44942</v>
       </c>
       <c r="AJ8" s="11">
-        <f t="shared" si="7"/>
-        <v>44942</v>
+        <f>AI8+2</f>
+        <v>44944</v>
       </c>
       <c r="AK8" s="11"/>
       <c r="AL8" s="11"/>
-      <c r="AM8" s="19"/>
-      <c r="AN8" s="20" t="str">
+      <c r="AM8" s="27"/>
+      <c r="AN8" s="28" t="str">
         <f>AH9</f>
         <v>山下　尊史</v>
       </c>
       <c r="AO8" s="11">
-        <f t="shared" si="8"/>
-        <v>44946</v>
+        <f>AJ8+1</f>
+        <v>44945</v>
       </c>
       <c r="AP8" s="11">
-        <f t="shared" si="9"/>
+        <f>AO8+1</f>
         <v>44946</v>
       </c>
       <c r="AQ8" s="11"/>
       <c r="AR8" s="11"/>
-      <c r="AS8" s="19"/>
-      <c r="AT8" s="19"/>
+      <c r="AS8" s="27"/>
+      <c r="AT8" s="27"/>
       <c r="AV8" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>周 可韻</v>
       </c>
       <c r="AW8" s="11">
-        <f t="shared" si="11"/>
-        <v>44947</v>
+        <f>AP8+1+2</f>
+        <v>44949</v>
       </c>
       <c r="AX8" s="11">
-        <f t="shared" si="12"/>
-        <v>44947</v>
+        <f t="shared" si="8"/>
+        <v>44949</v>
       </c>
       <c r="AY8" s="11"/>
       <c r="AZ8" s="11"/>
-      <c r="BA8" s="19"/>
-      <c r="BB8" s="20" t="str">
+      <c r="BA8" s="27"/>
+      <c r="BB8" s="28" t="str">
         <f>AV9</f>
         <v>山下　尊史</v>
       </c>
       <c r="BC8" s="11">
-        <f t="shared" si="13"/>
-        <v>44948</v>
+        <f t="shared" si="9"/>
+        <v>44950</v>
       </c>
       <c r="BD8" s="11">
-        <f t="shared" si="14"/>
-        <v>44948</v>
+        <f t="shared" si="10"/>
+        <v>44950</v>
       </c>
       <c r="BE8" s="11"/>
       <c r="BF8" s="11"/>
-      <c r="BG8" s="19"/>
-      <c r="BH8" s="19"/>
+      <c r="BG8" s="27"/>
+      <c r="BH8" s="27"/>
       <c r="BJ8" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>周 可韻</v>
       </c>
       <c r="BK8" s="11">
-        <f t="shared" si="16"/>
-        <v>44949</v>
+        <f t="shared" si="12"/>
+        <v>44951</v>
       </c>
       <c r="BL8" s="11">
-        <f t="shared" si="17"/>
-        <v>44949</v>
+        <f t="shared" si="13"/>
+        <v>44951</v>
       </c>
       <c r="BM8" s="11"/>
       <c r="BN8" s="11"/>
-      <c r="BO8" s="19"/>
-      <c r="BP8" s="20" t="str">
+      <c r="BO8" s="27"/>
+      <c r="BP8" s="28" t="str">
         <f>BJ9</f>
         <v>山下　尊史</v>
       </c>
       <c r="BQ8" s="11">
-        <f t="shared" si="18"/>
-        <v>44950</v>
+        <f t="shared" si="14"/>
+        <v>44952</v>
       </c>
       <c r="BR8" s="11">
-        <f t="shared" si="19"/>
-        <v>44950</v>
+        <f t="shared" si="15"/>
+        <v>44952</v>
       </c>
       <c r="BS8" s="11"/>
       <c r="BT8" s="11"/>
-      <c r="BU8" s="19"/>
-      <c r="BV8" s="19"/>
-      <c r="BW8" s="19"/>
-      <c r="BY8" s="23"/>
-      <c r="BZ8" s="24"/>
-      <c r="CA8" s="24"/>
-      <c r="CB8" s="24"/>
-      <c r="CC8" s="24"/>
-      <c r="CD8" s="29"/>
-      <c r="CE8" s="7"/>
+      <c r="BU8" s="27"/>
+      <c r="BV8" s="27"/>
+      <c r="BW8" s="27"/>
+      <c r="BY8" s="31"/>
+      <c r="BZ8" s="32"/>
+      <c r="CA8" s="32"/>
+      <c r="CB8" s="32"/>
+      <c r="CC8" s="32"/>
+      <c r="CD8" s="37"/>
+      <c r="CE8" s="20"/>
       <c r="CF8" s="11"/>
       <c r="CG8" s="11"/>
       <c r="CH8" s="11"/>
       <c r="CI8" s="11"/>
-      <c r="CJ8" s="28"/>
-      <c r="CK8" s="29"/>
-      <c r="CM8" s="23"/>
-      <c r="CN8" s="24"/>
-      <c r="CO8" s="24"/>
-      <c r="CP8" s="24"/>
-      <c r="CQ8" s="24"/>
-      <c r="CR8" s="29"/>
-      <c r="CS8" s="7"/>
+      <c r="CJ8" s="36"/>
+      <c r="CK8" s="37"/>
+      <c r="CM8" s="31"/>
+      <c r="CN8" s="32"/>
+      <c r="CO8" s="32"/>
+      <c r="CP8" s="32"/>
+      <c r="CQ8" s="32"/>
+      <c r="CR8" s="37"/>
+      <c r="CS8" s="20"/>
       <c r="CT8" s="11"/>
       <c r="CU8" s="11"/>
       <c r="CV8" s="11"/>
       <c r="CW8" s="11"/>
-      <c r="CX8" s="28"/>
-      <c r="CY8" s="28"/>
-      <c r="CZ8" s="28"/>
+      <c r="CX8" s="36"/>
+      <c r="CY8" s="36"/>
+      <c r="CZ8" s="36"/>
     </row>
     <row r="9" ht="18" customHeight="1" spans="2:104">
-      <c r="B9" s="7">
-        <v>3</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17"/>
       <c r="E9" s="10" t="str">
         <f>定数!D5</f>
         <v>チーム1</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G9" s="11">
         <v>44936</v>
@@ -2371,8 +2374,8 @@
       </c>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="20" t="str">
+      <c r="K9" s="27"/>
+      <c r="L9" s="28" t="str">
         <f>F7</f>
         <v> 崔智博 </v>
       </c>
@@ -2384,8 +2387,8 @@
       </c>
       <c r="O9" s="11"/>
       <c r="P9" s="11"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
       <c r="T9" s="10" t="str">
         <f t="shared" si="0"/>
         <v>山下　尊史</v>
@@ -2400,8 +2403,8 @@
       </c>
       <c r="W9" s="11"/>
       <c r="X9" s="11"/>
-      <c r="Y9" s="19"/>
-      <c r="Z9" s="20" t="str">
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="28" t="str">
         <f>T7</f>
         <v> 崔智博 </v>
       </c>
@@ -2415,8 +2418,8 @@
       </c>
       <c r="AC9" s="11"/>
       <c r="AD9" s="11"/>
-      <c r="AE9" s="19"/>
-      <c r="AF9" s="19"/>
+      <c r="AE9" s="27"/>
+      <c r="AF9" s="27"/>
       <c r="AH9" s="10" t="str">
         <f t="shared" si="5"/>
         <v>山下　尊史</v>
@@ -2426,135 +2429,135 @@
         <v>44942</v>
       </c>
       <c r="AJ9" s="11">
-        <f t="shared" si="7"/>
-        <v>44942</v>
+        <f>AI9+2</f>
+        <v>44944</v>
       </c>
       <c r="AK9" s="11"/>
       <c r="AL9" s="11"/>
-      <c r="AM9" s="19"/>
-      <c r="AN9" s="20" t="str">
+      <c r="AM9" s="27"/>
+      <c r="AN9" s="28" t="str">
         <f>AH7</f>
         <v> 崔智博 </v>
       </c>
       <c r="AO9" s="11">
-        <f t="shared" si="8"/>
-        <v>44946</v>
+        <f>AJ9+1</f>
+        <v>44945</v>
       </c>
       <c r="AP9" s="11">
-        <f t="shared" si="9"/>
+        <f>AO9+1</f>
         <v>44946</v>
       </c>
       <c r="AQ9" s="11"/>
       <c r="AR9" s="11"/>
-      <c r="AS9" s="19"/>
-      <c r="AT9" s="19"/>
+      <c r="AS9" s="27"/>
+      <c r="AT9" s="27"/>
       <c r="AV9" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>山下　尊史</v>
       </c>
       <c r="AW9" s="11">
-        <f t="shared" si="11"/>
-        <v>44947</v>
+        <f>AP9+1+2</f>
+        <v>44949</v>
       </c>
       <c r="AX9" s="11">
-        <f t="shared" si="12"/>
-        <v>44947</v>
+        <f t="shared" si="8"/>
+        <v>44949</v>
       </c>
       <c r="AY9" s="11"/>
       <c r="AZ9" s="11"/>
-      <c r="BA9" s="19"/>
-      <c r="BB9" s="20" t="str">
+      <c r="BA9" s="27"/>
+      <c r="BB9" s="28" t="str">
         <f>AV7</f>
         <v> 崔智博 </v>
       </c>
       <c r="BC9" s="11">
-        <f t="shared" si="13"/>
-        <v>44948</v>
+        <f t="shared" si="9"/>
+        <v>44950</v>
       </c>
       <c r="BD9" s="11">
-        <f t="shared" si="14"/>
-        <v>44948</v>
+        <f t="shared" si="10"/>
+        <v>44950</v>
       </c>
       <c r="BE9" s="11"/>
       <c r="BF9" s="11"/>
-      <c r="BG9" s="19"/>
-      <c r="BH9" s="19"/>
+      <c r="BG9" s="27"/>
+      <c r="BH9" s="27"/>
       <c r="BJ9" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>山下　尊史</v>
       </c>
       <c r="BK9" s="11">
-        <f t="shared" si="16"/>
-        <v>44949</v>
+        <f t="shared" si="12"/>
+        <v>44951</v>
       </c>
       <c r="BL9" s="11">
-        <f t="shared" si="17"/>
-        <v>44949</v>
+        <f t="shared" si="13"/>
+        <v>44951</v>
       </c>
       <c r="BM9" s="11"/>
       <c r="BN9" s="11"/>
-      <c r="BO9" s="19"/>
-      <c r="BP9" s="20" t="str">
+      <c r="BO9" s="27"/>
+      <c r="BP9" s="28" t="str">
         <f>BJ7</f>
         <v> 崔智博 </v>
       </c>
       <c r="BQ9" s="11">
-        <f t="shared" si="18"/>
-        <v>44950</v>
+        <f t="shared" si="14"/>
+        <v>44952</v>
       </c>
       <c r="BR9" s="11">
-        <f t="shared" si="19"/>
-        <v>44950</v>
+        <f t="shared" si="15"/>
+        <v>44952</v>
       </c>
       <c r="BS9" s="11"/>
       <c r="BT9" s="11"/>
-      <c r="BU9" s="19"/>
-      <c r="BV9" s="19"/>
-      <c r="BW9" s="19"/>
-      <c r="BY9" s="25"/>
-      <c r="BZ9" s="26"/>
-      <c r="CA9" s="26"/>
-      <c r="CB9" s="26"/>
-      <c r="CC9" s="26"/>
-      <c r="CD9" s="30"/>
-      <c r="CE9" s="7"/>
+      <c r="BU9" s="27"/>
+      <c r="BV9" s="27"/>
+      <c r="BW9" s="27"/>
+      <c r="BY9" s="33"/>
+      <c r="BZ9" s="34"/>
+      <c r="CA9" s="34"/>
+      <c r="CB9" s="34"/>
+      <c r="CC9" s="34"/>
+      <c r="CD9" s="38"/>
+      <c r="CE9" s="20"/>
       <c r="CF9" s="11"/>
       <c r="CG9" s="11"/>
       <c r="CH9" s="11"/>
       <c r="CI9" s="11"/>
-      <c r="CJ9" s="28"/>
-      <c r="CK9" s="30"/>
-      <c r="CM9" s="25"/>
-      <c r="CN9" s="26"/>
-      <c r="CO9" s="26"/>
-      <c r="CP9" s="26"/>
-      <c r="CQ9" s="26"/>
-      <c r="CR9" s="30"/>
-      <c r="CS9" s="7"/>
+      <c r="CJ9" s="36"/>
+      <c r="CK9" s="38"/>
+      <c r="CM9" s="33"/>
+      <c r="CN9" s="34"/>
+      <c r="CO9" s="34"/>
+      <c r="CP9" s="34"/>
+      <c r="CQ9" s="34"/>
+      <c r="CR9" s="38"/>
+      <c r="CS9" s="20"/>
       <c r="CT9" s="11"/>
       <c r="CU9" s="11"/>
       <c r="CV9" s="11"/>
       <c r="CW9" s="11"/>
-      <c r="CX9" s="28"/>
-      <c r="CY9" s="28"/>
-      <c r="CZ9" s="28"/>
+      <c r="CX9" s="36"/>
+      <c r="CY9" s="36"/>
+      <c r="CZ9" s="36"/>
     </row>
     <row r="10" ht="18" customHeight="1" spans="2:104">
       <c r="B10" s="7">
-        <v>4</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>37</v>
+        <v>2</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>35</v>
       </c>
       <c r="E10" s="10" t="str">
         <f>定数!D8</f>
         <v>チーム2</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G10" s="11">
         <v>44936</v>
@@ -2564,8 +2567,8 @@
       </c>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="20" t="str">
+      <c r="K10" s="27"/>
+      <c r="L10" s="28" t="str">
         <f>F11</f>
         <v>ZIN MOE HTET</v>
       </c>
@@ -2577,8 +2580,8 @@
       </c>
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
       <c r="T10" s="10" t="str">
         <f t="shared" si="0"/>
         <v>大石</v>
@@ -2593,8 +2596,8 @@
       </c>
       <c r="W10" s="11"/>
       <c r="X10" s="11"/>
-      <c r="Y10" s="19"/>
-      <c r="Z10" s="20" t="str">
+      <c r="Y10" s="27"/>
+      <c r="Z10" s="28" t="str">
         <f>T11</f>
         <v>ZIN MOE HTET</v>
       </c>
@@ -2608,8 +2611,8 @@
       </c>
       <c r="AC10" s="11"/>
       <c r="AD10" s="11"/>
-      <c r="AE10" s="19"/>
-      <c r="AF10" s="19"/>
+      <c r="AE10" s="27"/>
+      <c r="AF10" s="27"/>
       <c r="AH10" s="10" t="str">
         <f t="shared" si="5"/>
         <v>大石</v>
@@ -2619,169 +2622,165 @@
         <v>44942</v>
       </c>
       <c r="AJ10" s="11">
-        <f t="shared" si="7"/>
-        <v>44942</v>
+        <f>AI10+2</f>
+        <v>44944</v>
       </c>
       <c r="AK10" s="11"/>
       <c r="AL10" s="11"/>
-      <c r="AM10" s="19"/>
-      <c r="AN10" s="20" t="str">
+      <c r="AM10" s="27"/>
+      <c r="AN10" s="28" t="str">
         <f>AH11</f>
         <v>ZIN MOE HTET</v>
       </c>
       <c r="AO10" s="11">
-        <f t="shared" si="8"/>
-        <v>44946</v>
+        <f>AJ10+1</f>
+        <v>44945</v>
       </c>
       <c r="AP10" s="11">
-        <f t="shared" si="9"/>
+        <f>AO10+1</f>
         <v>44946</v>
       </c>
       <c r="AQ10" s="11"/>
       <c r="AR10" s="11"/>
-      <c r="AS10" s="19"/>
-      <c r="AT10" s="19"/>
+      <c r="AS10" s="27"/>
+      <c r="AT10" s="27"/>
       <c r="AV10" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>大石</v>
       </c>
       <c r="AW10" s="11">
-        <f t="shared" si="11"/>
-        <v>44947</v>
+        <f>AP10+1+2</f>
+        <v>44949</v>
       </c>
       <c r="AX10" s="11">
-        <f t="shared" si="12"/>
-        <v>44947</v>
+        <f t="shared" si="8"/>
+        <v>44949</v>
       </c>
       <c r="AY10" s="11"/>
       <c r="AZ10" s="11"/>
-      <c r="BA10" s="19"/>
-      <c r="BB10" s="20" t="str">
+      <c r="BA10" s="27"/>
+      <c r="BB10" s="28" t="str">
         <f>AV11</f>
         <v>ZIN MOE HTET</v>
       </c>
       <c r="BC10" s="11">
-        <f t="shared" si="13"/>
-        <v>44948</v>
+        <f t="shared" si="9"/>
+        <v>44950</v>
       </c>
       <c r="BD10" s="11">
-        <f t="shared" si="14"/>
-        <v>44948</v>
+        <f t="shared" si="10"/>
+        <v>44950</v>
       </c>
       <c r="BE10" s="11"/>
       <c r="BF10" s="11"/>
-      <c r="BG10" s="19"/>
-      <c r="BH10" s="19"/>
+      <c r="BG10" s="27"/>
+      <c r="BH10" s="27"/>
       <c r="BJ10" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>大石</v>
       </c>
       <c r="BK10" s="11">
-        <f t="shared" si="16"/>
-        <v>44949</v>
+        <f t="shared" si="12"/>
+        <v>44951</v>
       </c>
       <c r="BL10" s="11">
-        <f t="shared" si="17"/>
-        <v>44949</v>
+        <f t="shared" si="13"/>
+        <v>44951</v>
       </c>
       <c r="BM10" s="11"/>
       <c r="BN10" s="11"/>
-      <c r="BO10" s="19"/>
-      <c r="BP10" s="20" t="str">
+      <c r="BO10" s="27"/>
+      <c r="BP10" s="28" t="str">
         <f>BJ11</f>
         <v>ZIN MOE HTET</v>
       </c>
       <c r="BQ10" s="11">
-        <f t="shared" si="18"/>
-        <v>44950</v>
+        <f t="shared" si="14"/>
+        <v>44952</v>
       </c>
       <c r="BR10" s="11">
-        <f t="shared" si="19"/>
-        <v>44950</v>
+        <f t="shared" si="15"/>
+        <v>44952</v>
       </c>
       <c r="BS10" s="11"/>
       <c r="BT10" s="11"/>
-      <c r="BU10" s="19"/>
-      <c r="BV10" s="19"/>
-      <c r="BW10" s="19"/>
-      <c r="BY10" s="21" t="str">
+      <c r="BU10" s="27"/>
+      <c r="BV10" s="27"/>
+      <c r="BW10" s="27"/>
+      <c r="BY10" s="29" t="str">
         <f>E10</f>
         <v>チーム2</v>
       </c>
-      <c r="BZ10" s="22">
-        <f t="shared" ref="BZ10" si="20">BQ10+1</f>
-        <v>44951</v>
-      </c>
-      <c r="CA10" s="22">
-        <f t="shared" ref="CA10" si="21">BZ10</f>
-        <v>44951</v>
-      </c>
-      <c r="CB10" s="22"/>
-      <c r="CC10" s="22"/>
-      <c r="CD10" s="27"/>
-      <c r="CE10" s="7" t="e">
+      <c r="BZ10" s="30">
+        <f t="shared" ref="BZ10" si="16">BQ10+1</f>
+        <v>44953</v>
+      </c>
+      <c r="CA10" s="30">
+        <f t="shared" ref="CA10" si="17">BZ10</f>
+        <v>44953</v>
+      </c>
+      <c r="CB10" s="30"/>
+      <c r="CC10" s="30"/>
+      <c r="CD10" s="35"/>
+      <c r="CE10" s="20" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="CF10" s="11">
-        <f>CA10+1</f>
-        <v>44952</v>
+        <f>CA10+1+2</f>
+        <v>44956</v>
       </c>
       <c r="CG10" s="11">
-        <f t="shared" ref="CG10" si="22">CF10</f>
-        <v>44952</v>
+        <f t="shared" ref="CG10" si="18">CF10</f>
+        <v>44956</v>
       </c>
       <c r="CH10" s="11"/>
       <c r="CI10" s="11"/>
-      <c r="CJ10" s="28"/>
-      <c r="CK10" s="27"/>
-      <c r="CM10" s="21" t="str">
-        <f t="shared" ref="CM10" si="23">BY10</f>
+      <c r="CJ10" s="36"/>
+      <c r="CK10" s="35"/>
+      <c r="CM10" s="29" t="str">
+        <f t="shared" ref="CM10" si="19">BY10</f>
         <v>チーム2</v>
       </c>
-      <c r="CN10" s="22">
+      <c r="CN10" s="30">
         <f>CF10+1</f>
-        <v>44953</v>
-      </c>
-      <c r="CO10" s="22">
+        <v>44957</v>
+      </c>
+      <c r="CO10" s="30">
         <f>CN10</f>
-        <v>44953</v>
-      </c>
-      <c r="CP10" s="22"/>
-      <c r="CQ10" s="22"/>
-      <c r="CR10" s="27"/>
-      <c r="CS10" s="7" t="str">
-        <f t="shared" ref="CS10" si="24">CM10</f>
+        <v>44957</v>
+      </c>
+      <c r="CP10" s="30"/>
+      <c r="CQ10" s="30"/>
+      <c r="CR10" s="35"/>
+      <c r="CS10" s="20" t="str">
+        <f t="shared" ref="CS10" si="20">CM10</f>
         <v>チーム2</v>
       </c>
       <c r="CT10" s="11">
-        <f>CO10+1</f>
-        <v>44954</v>
+        <f>CO10</f>
+        <v>44957</v>
       </c>
       <c r="CU10" s="11">
         <f>CT10</f>
-        <v>44954</v>
+        <v>44957</v>
       </c>
       <c r="CV10" s="11"/>
       <c r="CW10" s="11"/>
-      <c r="CX10" s="28"/>
-      <c r="CY10" s="28"/>
-      <c r="CZ10" s="28"/>
+      <c r="CX10" s="36"/>
+      <c r="CY10" s="36"/>
+      <c r="CZ10" s="36"/>
     </row>
     <row r="11" ht="18" customHeight="1" spans="2:104">
-      <c r="B11" s="7">
-        <v>5</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="9" t="s">
-        <v>39</v>
-      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="14"/>
       <c r="E11" s="10" t="str">
         <f>定数!D8</f>
         <v>チーム2</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G11" s="11">
         <v>44936</v>
@@ -2791,8 +2790,8 @@
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="20" t="str">
+      <c r="K11" s="27"/>
+      <c r="L11" s="28" t="str">
         <f>F12</f>
         <v>王　陶錦</v>
       </c>
@@ -2804,8 +2803,8 @@
       </c>
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
       <c r="T11" s="10" t="str">
         <f t="shared" si="0"/>
         <v>ZIN MOE HTET</v>
@@ -2820,8 +2819,8 @@
       </c>
       <c r="W11" s="11"/>
       <c r="X11" s="11"/>
-      <c r="Y11" s="19"/>
-      <c r="Z11" s="20" t="str">
+      <c r="Y11" s="27"/>
+      <c r="Z11" s="28" t="str">
         <f>T12</f>
         <v>王　陶錦</v>
       </c>
@@ -2835,8 +2834,8 @@
       </c>
       <c r="AC11" s="11"/>
       <c r="AD11" s="11"/>
-      <c r="AE11" s="19"/>
-      <c r="AF11" s="19"/>
+      <c r="AE11" s="27"/>
+      <c r="AF11" s="27"/>
       <c r="AH11" s="10" t="str">
         <f t="shared" si="5"/>
         <v>ZIN MOE HTET</v>
@@ -2846,133 +2845,129 @@
         <v>44942</v>
       </c>
       <c r="AJ11" s="11">
-        <f t="shared" si="7"/>
-        <v>44942</v>
+        <f>AI11+2</f>
+        <v>44944</v>
       </c>
       <c r="AK11" s="11"/>
       <c r="AL11" s="11"/>
-      <c r="AM11" s="19"/>
-      <c r="AN11" s="20" t="str">
+      <c r="AM11" s="27"/>
+      <c r="AN11" s="28" t="str">
         <f>AH12</f>
         <v>王　陶錦</v>
       </c>
       <c r="AO11" s="11">
-        <f t="shared" si="8"/>
-        <v>44946</v>
+        <f>AJ11+1</f>
+        <v>44945</v>
       </c>
       <c r="AP11" s="11">
-        <f t="shared" si="9"/>
+        <f>AO11+1</f>
         <v>44946</v>
       </c>
       <c r="AQ11" s="11"/>
       <c r="AR11" s="11"/>
-      <c r="AS11" s="19"/>
-      <c r="AT11" s="19"/>
+      <c r="AS11" s="27"/>
+      <c r="AT11" s="27"/>
       <c r="AV11" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>ZIN MOE HTET</v>
       </c>
       <c r="AW11" s="11">
-        <f t="shared" si="11"/>
-        <v>44947</v>
+        <f>AP11+1+2</f>
+        <v>44949</v>
       </c>
       <c r="AX11" s="11">
-        <f t="shared" si="12"/>
-        <v>44947</v>
+        <f t="shared" si="8"/>
+        <v>44949</v>
       </c>
       <c r="AY11" s="11"/>
       <c r="AZ11" s="11"/>
-      <c r="BA11" s="19"/>
-      <c r="BB11" s="20" t="str">
+      <c r="BA11" s="27"/>
+      <c r="BB11" s="28" t="str">
         <f>AV12</f>
         <v>王　陶錦</v>
       </c>
       <c r="BC11" s="11">
-        <f t="shared" si="13"/>
-        <v>44948</v>
+        <f t="shared" si="9"/>
+        <v>44950</v>
       </c>
       <c r="BD11" s="11">
-        <f t="shared" si="14"/>
-        <v>44948</v>
+        <f t="shared" si="10"/>
+        <v>44950</v>
       </c>
       <c r="BE11" s="11"/>
       <c r="BF11" s="11"/>
-      <c r="BG11" s="19"/>
-      <c r="BH11" s="19"/>
+      <c r="BG11" s="27"/>
+      <c r="BH11" s="27"/>
       <c r="BJ11" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>ZIN MOE HTET</v>
       </c>
       <c r="BK11" s="11">
-        <f t="shared" si="16"/>
-        <v>44949</v>
+        <f t="shared" si="12"/>
+        <v>44951</v>
       </c>
       <c r="BL11" s="11">
-        <f t="shared" si="17"/>
-        <v>44949</v>
+        <f t="shared" si="13"/>
+        <v>44951</v>
       </c>
       <c r="BM11" s="11"/>
       <c r="BN11" s="11"/>
-      <c r="BO11" s="19"/>
-      <c r="BP11" s="20" t="str">
+      <c r="BO11" s="27"/>
+      <c r="BP11" s="28" t="str">
         <f>BJ12</f>
         <v>王　陶錦</v>
       </c>
       <c r="BQ11" s="11">
-        <f t="shared" si="18"/>
-        <v>44950</v>
+        <f t="shared" si="14"/>
+        <v>44952</v>
       </c>
       <c r="BR11" s="11">
-        <f t="shared" si="19"/>
-        <v>44950</v>
+        <f t="shared" si="15"/>
+        <v>44952</v>
       </c>
       <c r="BS11" s="11"/>
       <c r="BT11" s="11"/>
-      <c r="BU11" s="19"/>
-      <c r="BV11" s="19"/>
-      <c r="BW11" s="19"/>
-      <c r="BY11" s="23"/>
-      <c r="BZ11" s="24"/>
-      <c r="CA11" s="24"/>
-      <c r="CB11" s="24"/>
-      <c r="CC11" s="24"/>
-      <c r="CD11" s="29"/>
-      <c r="CE11" s="7"/>
+      <c r="BU11" s="27"/>
+      <c r="BV11" s="27"/>
+      <c r="BW11" s="27"/>
+      <c r="BY11" s="31"/>
+      <c r="BZ11" s="32"/>
+      <c r="CA11" s="32"/>
+      <c r="CB11" s="32"/>
+      <c r="CC11" s="32"/>
+      <c r="CD11" s="37"/>
+      <c r="CE11" s="20"/>
       <c r="CF11" s="11"/>
       <c r="CG11" s="11"/>
       <c r="CH11" s="11"/>
       <c r="CI11" s="11"/>
-      <c r="CJ11" s="28"/>
-      <c r="CK11" s="29"/>
-      <c r="CM11" s="23"/>
-      <c r="CN11" s="24"/>
-      <c r="CO11" s="24"/>
-      <c r="CP11" s="24"/>
-      <c r="CQ11" s="24"/>
-      <c r="CR11" s="29"/>
-      <c r="CS11" s="7"/>
+      <c r="CJ11" s="36"/>
+      <c r="CK11" s="37"/>
+      <c r="CM11" s="31"/>
+      <c r="CN11" s="32"/>
+      <c r="CO11" s="32"/>
+      <c r="CP11" s="32"/>
+      <c r="CQ11" s="32"/>
+      <c r="CR11" s="37"/>
+      <c r="CS11" s="20"/>
       <c r="CT11" s="11"/>
       <c r="CU11" s="11"/>
       <c r="CV11" s="11"/>
       <c r="CW11" s="11"/>
-      <c r="CX11" s="28"/>
-      <c r="CY11" s="28"/>
-      <c r="CZ11" s="28"/>
+      <c r="CX11" s="36"/>
+      <c r="CY11" s="36"/>
+      <c r="CZ11" s="36"/>
     </row>
     <row r="12" ht="18" customHeight="1" spans="2:104">
-      <c r="B12" s="7">
-        <v>6</v>
-      </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="9" t="s">
-        <v>41</v>
-      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="17"/>
       <c r="E12" s="10" t="str">
         <f>定数!D8</f>
         <v>チーム2</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G12" s="11">
         <v>44936</v>
@@ -2982,8 +2977,8 @@
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="20" t="str">
+      <c r="K12" s="27"/>
+      <c r="L12" s="28" t="str">
         <f>F10</f>
         <v>大石</v>
       </c>
@@ -2995,8 +2990,8 @@
       </c>
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
       <c r="T12" s="10" t="str">
         <f t="shared" si="0"/>
         <v>王　陶錦</v>
@@ -3011,8 +3006,8 @@
       </c>
       <c r="W12" s="11"/>
       <c r="X12" s="11"/>
-      <c r="Y12" s="19"/>
-      <c r="Z12" s="20" t="str">
+      <c r="Y12" s="27"/>
+      <c r="Z12" s="28" t="str">
         <f>T10</f>
         <v>大石</v>
       </c>
@@ -3026,8 +3021,8 @@
       </c>
       <c r="AC12" s="11"/>
       <c r="AD12" s="11"/>
-      <c r="AE12" s="19"/>
-      <c r="AF12" s="19"/>
+      <c r="AE12" s="27"/>
+      <c r="AF12" s="27"/>
       <c r="AH12" s="10" t="str">
         <f t="shared" si="5"/>
         <v>王　陶錦</v>
@@ -3037,153 +3032,174 @@
         <v>44942</v>
       </c>
       <c r="AJ12" s="11">
-        <f t="shared" si="7"/>
-        <v>44942</v>
+        <f>AI12+2</f>
+        <v>44944</v>
       </c>
       <c r="AK12" s="11"/>
       <c r="AL12" s="11"/>
-      <c r="AM12" s="19"/>
-      <c r="AN12" s="20" t="str">
+      <c r="AM12" s="27"/>
+      <c r="AN12" s="28" t="str">
         <f>AH10</f>
         <v>大石</v>
       </c>
       <c r="AO12" s="11">
-        <f t="shared" si="8"/>
-        <v>44946</v>
+        <f>AJ12+1</f>
+        <v>44945</v>
       </c>
       <c r="AP12" s="11">
-        <f t="shared" si="9"/>
+        <f>AO12+1</f>
         <v>44946</v>
       </c>
       <c r="AQ12" s="11"/>
       <c r="AR12" s="11"/>
-      <c r="AS12" s="19"/>
-      <c r="AT12" s="19"/>
+      <c r="AS12" s="27"/>
+      <c r="AT12" s="27"/>
       <c r="AV12" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>王　陶錦</v>
       </c>
       <c r="AW12" s="11">
-        <f t="shared" si="11"/>
-        <v>44947</v>
+        <f>AP12+1+2</f>
+        <v>44949</v>
       </c>
       <c r="AX12" s="11">
-        <f t="shared" si="12"/>
-        <v>44947</v>
+        <f t="shared" si="8"/>
+        <v>44949</v>
       </c>
       <c r="AY12" s="11"/>
       <c r="AZ12" s="11"/>
-      <c r="BA12" s="19"/>
-      <c r="BB12" s="20" t="str">
+      <c r="BA12" s="27"/>
+      <c r="BB12" s="28" t="str">
         <f>AV10</f>
         <v>大石</v>
       </c>
       <c r="BC12" s="11">
-        <f t="shared" si="13"/>
-        <v>44948</v>
+        <f t="shared" si="9"/>
+        <v>44950</v>
       </c>
       <c r="BD12" s="11">
-        <f t="shared" si="14"/>
-        <v>44948</v>
+        <f t="shared" si="10"/>
+        <v>44950</v>
       </c>
       <c r="BE12" s="11"/>
       <c r="BF12" s="11"/>
-      <c r="BG12" s="19"/>
-      <c r="BH12" s="19"/>
+      <c r="BG12" s="27"/>
+      <c r="BH12" s="27"/>
       <c r="BJ12" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>王　陶錦</v>
       </c>
       <c r="BK12" s="11">
-        <f t="shared" si="16"/>
-        <v>44949</v>
+        <f t="shared" si="12"/>
+        <v>44951</v>
       </c>
       <c r="BL12" s="11">
-        <f t="shared" si="17"/>
-        <v>44949</v>
+        <f t="shared" si="13"/>
+        <v>44951</v>
       </c>
       <c r="BM12" s="11"/>
       <c r="BN12" s="11"/>
-      <c r="BO12" s="19"/>
-      <c r="BP12" s="20" t="str">
+      <c r="BO12" s="27"/>
+      <c r="BP12" s="28" t="str">
         <f>BJ10</f>
         <v>大石</v>
       </c>
       <c r="BQ12" s="11">
-        <f t="shared" si="18"/>
-        <v>44950</v>
+        <f t="shared" si="14"/>
+        <v>44952</v>
       </c>
       <c r="BR12" s="11">
-        <f t="shared" si="19"/>
-        <v>44950</v>
+        <f t="shared" si="15"/>
+        <v>44952</v>
       </c>
       <c r="BS12" s="11"/>
       <c r="BT12" s="11"/>
-      <c r="BU12" s="19"/>
-      <c r="BV12" s="19"/>
-      <c r="BW12" s="19"/>
-      <c r="BY12" s="25"/>
-      <c r="BZ12" s="26"/>
-      <c r="CA12" s="26"/>
-      <c r="CB12" s="26"/>
-      <c r="CC12" s="26"/>
-      <c r="CD12" s="30"/>
-      <c r="CE12" s="7"/>
+      <c r="BU12" s="27"/>
+      <c r="BV12" s="27"/>
+      <c r="BW12" s="27"/>
+      <c r="BY12" s="33"/>
+      <c r="BZ12" s="34"/>
+      <c r="CA12" s="34"/>
+      <c r="CB12" s="34"/>
+      <c r="CC12" s="34"/>
+      <c r="CD12" s="38"/>
+      <c r="CE12" s="20"/>
       <c r="CF12" s="11"/>
       <c r="CG12" s="11"/>
       <c r="CH12" s="11"/>
       <c r="CI12" s="11"/>
-      <c r="CJ12" s="28"/>
-      <c r="CK12" s="30"/>
-      <c r="CM12" s="25"/>
-      <c r="CN12" s="26"/>
-      <c r="CO12" s="26"/>
-      <c r="CP12" s="26"/>
-      <c r="CQ12" s="26"/>
-      <c r="CR12" s="30"/>
-      <c r="CS12" s="7"/>
+      <c r="CJ12" s="36"/>
+      <c r="CK12" s="38"/>
+      <c r="CM12" s="33"/>
+      <c r="CN12" s="34"/>
+      <c r="CO12" s="34"/>
+      <c r="CP12" s="34"/>
+      <c r="CQ12" s="34"/>
+      <c r="CR12" s="38"/>
+      <c r="CS12" s="20"/>
       <c r="CT12" s="11"/>
       <c r="CU12" s="11"/>
       <c r="CV12" s="11"/>
       <c r="CW12" s="11"/>
-      <c r="CX12" s="28"/>
-      <c r="CY12" s="28"/>
-      <c r="CZ12" s="28"/>
+      <c r="CX12" s="36"/>
+      <c r="CY12" s="36"/>
+      <c r="CZ12" s="36"/>
+    </row>
+    <row r="14" spans="4:4">
+      <c r="D14" s="21"/>
+    </row>
+    <row r="15" spans="4:4">
+      <c r="D15" s="21"/>
+    </row>
+    <row r="16" spans="4:4">
+      <c r="D16" s="21"/>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" s="22"/>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" s="22"/>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" s="22"/>
+    </row>
+    <row r="20" spans="4:4">
+      <c r="D20" s="21"/>
     </row>
     <row r="21" spans="3:4">
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
     </row>
     <row r="22" ht="14.25" spans="3:4">
-      <c r="C22" s="14"/>
-      <c r="D22" s="15"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="24"/>
     </row>
     <row r="23" ht="14.25" spans="3:4">
-      <c r="C23" s="14"/>
-      <c r="D23" s="15"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="24"/>
     </row>
     <row r="24" ht="14.25" spans="3:4">
-      <c r="C24" s="14"/>
-      <c r="D24" s="15"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="24"/>
     </row>
     <row r="25" ht="14.25" spans="3:4">
-      <c r="C25" s="14"/>
-      <c r="D25" s="15"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="24"/>
     </row>
     <row r="26" ht="14.25" spans="3:4">
-      <c r="C26" s="14"/>
-      <c r="D26" s="16"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="25"/>
     </row>
     <row r="27" ht="14.25" spans="3:4">
-      <c r="C27" s="14"/>
-      <c r="D27" s="15"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="24"/>
     </row>
     <row r="28" spans="3:4">
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="139">
+  <mergeCells count="143">
     <mergeCell ref="F4:K4"/>
     <mergeCell ref="L4:R4"/>
     <mergeCell ref="T4:Y4"/>
@@ -3227,10 +3243,14 @@
     <mergeCell ref="CT5:CU5"/>
     <mergeCell ref="CV5:CW5"/>
     <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B10:B12"/>
     <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C7:C9"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="D4:D6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="D10:D12"/>
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="K5:K6"/>
@@ -3454,12 +3474,12 @@
       <formula>$AL7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN7:AT7 AO8:AO12">
+  <conditionalFormatting sqref="AN7:AT7 AO8:AP12">
     <cfRule type="expression" dxfId="0" priority="75">
       <formula>$AR7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV7:BA7 AX8:AX12">
+  <conditionalFormatting sqref="AV7:BA7 AW8:AX12">
     <cfRule type="expression" dxfId="0" priority="70">
       <formula>$AZ7&lt;&gt;""</formula>
     </cfRule>
@@ -3484,12 +3504,12 @@
       <formula>$J8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G8 G10 G12">
+  <conditionalFormatting sqref="G8 G12 G10">
     <cfRule type="expression" dxfId="0" priority="4">
       <formula>$J8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8 H10 H12">
+  <conditionalFormatting sqref="H8 H12 H10">
     <cfRule type="expression" dxfId="0" priority="3">
       <formula>$J8&lt;&gt;""</formula>
     </cfRule>
@@ -3499,12 +3519,12 @@
       <formula>$P8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M8 M10 M12">
+  <conditionalFormatting sqref="M8 M12 M10">
     <cfRule type="expression" dxfId="0" priority="2">
       <formula>$J8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N8 N10 N12">
+  <conditionalFormatting sqref="N8 N12 N10">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$J8&lt;&gt;""</formula>
     </cfRule>
@@ -3524,12 +3544,12 @@
       <formula>$AL8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN8:AN12 AP8:AT12">
+  <conditionalFormatting sqref="AN8:AN12 AQ8:AT12">
     <cfRule type="expression" dxfId="0" priority="71">
       <formula>$AR8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV8:AW12 AY8:BA12">
+  <conditionalFormatting sqref="AV8:AV12 AY8:BA12">
     <cfRule type="expression" dxfId="0" priority="66">
       <formula>$AZ8&lt;&gt;""</formula>
     </cfRule>
@@ -3568,7 +3588,7 @@
   <sheetData>
     <row r="5" spans="4:5">
       <c r="D5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>11</v>
@@ -3576,12 +3596,12 @@
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/スケジュール.xlsx
+++ b/スケジュール.xlsx
@@ -870,7 +870,7 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -934,7 +934,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -950,19 +949,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1314,11 +1304,11 @@
   <dimension ref="B3:DB28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="6" topLeftCell="Y7" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomRight" activeCell="AW27" sqref="AW27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1328,22 +1318,22 @@
     <col min="3" max="3" width="16.8833333333333" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.2166666666667" style="1" customWidth="1"/>
     <col min="5" max="5" width="6.66666666666667" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="11" width="6.55833333333333" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="9.55833333333333" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="18" width="6.55833333333333" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="2" style="1" customWidth="1"/>
-    <col min="20" max="20" width="6.66666666666667" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="25" width="6.55833333333333" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="26" width="9.55833333333333" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="32" width="6.55833333333333" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="33" max="33" width="1.66666666666667" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="11" width="6.55833333333333" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="9.55833333333333" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="18" width="6.55833333333333" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="2" style="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="6.66666666666667" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="25" width="6.55833333333333" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="9.55833333333333" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="32" width="6.55833333333333" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="33" max="33" width="1.66666666666667" style="1" customWidth="1"/>
     <col min="34" max="34" width="6.66666666666667" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="35" max="46" width="6.55833333333333" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="47" max="47" width="1.66666666666667" style="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="6.66666666666667" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="49" max="60" width="6.55833333333333" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="61" max="61" width="1.66666666666667" style="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="6.66666666666667" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="49" max="60" width="6.55833333333333" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="61" max="61" width="1.66666666666667" style="1" customWidth="1"/>
     <col min="62" max="62" width="6.66666666666667" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="63" max="75" width="6.55833333333333" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="76" max="76" width="1.66666666666667" style="1" customWidth="1" collapsed="1"/>
@@ -1512,7 +1502,7 @@
         <v>21</v>
       </c>
       <c r="J5" s="5"/>
-      <c r="K5" s="26" t="s">
+      <c r="K5" s="25" t="s">
         <v>22</v>
       </c>
       <c r="L5" s="4" t="s">
@@ -1526,10 +1516,10 @@
         <v>21</v>
       </c>
       <c r="P5" s="5"/>
-      <c r="Q5" s="26" t="s">
+      <c r="Q5" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="R5" s="26" t="s">
+      <c r="R5" s="25" t="s">
         <v>24</v>
       </c>
       <c r="T5" s="4" t="s">
@@ -1543,7 +1533,7 @@
         <v>21</v>
       </c>
       <c r="X5" s="5"/>
-      <c r="Y5" s="26" t="s">
+      <c r="Y5" s="25" t="s">
         <v>22</v>
       </c>
       <c r="Z5" s="4" t="s">
@@ -1557,10 +1547,10 @@
         <v>21</v>
       </c>
       <c r="AD5" s="5"/>
-      <c r="AE5" s="26" t="s">
+      <c r="AE5" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="AF5" s="26" t="s">
+      <c r="AF5" s="25" t="s">
         <v>24</v>
       </c>
       <c r="AH5" s="4" t="s">
@@ -1574,7 +1564,7 @@
         <v>21</v>
       </c>
       <c r="AL5" s="5"/>
-      <c r="AM5" s="26" t="s">
+      <c r="AM5" s="25" t="s">
         <v>22</v>
       </c>
       <c r="AN5" s="4" t="s">
@@ -1588,10 +1578,10 @@
         <v>21</v>
       </c>
       <c r="AR5" s="5"/>
-      <c r="AS5" s="26" t="s">
+      <c r="AS5" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="AT5" s="26" t="s">
+      <c r="AT5" s="25" t="s">
         <v>24</v>
       </c>
       <c r="AV5" s="4" t="s">
@@ -1605,7 +1595,7 @@
         <v>21</v>
       </c>
       <c r="AZ5" s="5"/>
-      <c r="BA5" s="26" t="s">
+      <c r="BA5" s="25" t="s">
         <v>22</v>
       </c>
       <c r="BB5" s="4" t="s">
@@ -1619,10 +1609,10 @@
         <v>21</v>
       </c>
       <c r="BF5" s="5"/>
-      <c r="BG5" s="26" t="s">
+      <c r="BG5" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="BH5" s="26" t="s">
+      <c r="BH5" s="25" t="s">
         <v>24</v>
       </c>
       <c r="BJ5" s="4" t="s">
@@ -1636,7 +1626,7 @@
         <v>21</v>
       </c>
       <c r="BN5" s="5"/>
-      <c r="BO5" s="26" t="s">
+      <c r="BO5" s="25" t="s">
         <v>22</v>
       </c>
       <c r="BP5" s="4" t="s">
@@ -1650,13 +1640,13 @@
         <v>21</v>
       </c>
       <c r="BT5" s="5"/>
-      <c r="BU5" s="26" t="s">
+      <c r="BU5" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="BV5" s="26" t="s">
+      <c r="BV5" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="BW5" s="26" t="s">
+      <c r="BW5" s="25" t="s">
         <v>25</v>
       </c>
       <c r="BY5" s="4" t="s">
@@ -1670,7 +1660,7 @@
         <v>21</v>
       </c>
       <c r="CC5" s="5"/>
-      <c r="CD5" s="26" t="s">
+      <c r="CD5" s="25" t="s">
         <v>22</v>
       </c>
       <c r="CE5" s="4" t="s">
@@ -1684,10 +1674,10 @@
         <v>21</v>
       </c>
       <c r="CI5" s="5"/>
-      <c r="CJ5" s="26" t="s">
+      <c r="CJ5" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="CK5" s="26" t="s">
+      <c r="CK5" s="25" t="s">
         <v>24</v>
       </c>
       <c r="CM5" s="4" t="s">
@@ -1701,7 +1691,7 @@
         <v>21</v>
       </c>
       <c r="CQ5" s="5"/>
-      <c r="CR5" s="26" t="s">
+      <c r="CR5" s="25" t="s">
         <v>22</v>
       </c>
       <c r="CS5" s="4" t="s">
@@ -1715,13 +1705,13 @@
         <v>21</v>
       </c>
       <c r="CW5" s="5"/>
-      <c r="CX5" s="26" t="s">
+      <c r="CX5" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="CY5" s="26" t="s">
+      <c r="CY5" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="CZ5" s="26" t="s">
+      <c r="CZ5" s="25" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1961,8 +1951,8 @@
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="28" t="str">
+      <c r="K7" s="26"/>
+      <c r="L7" s="27" t="str">
         <f>F8</f>
         <v>周 可韻</v>
       </c>
@@ -1974,8 +1964,8 @@
       </c>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
       <c r="T7" s="10" t="str">
         <f t="shared" ref="T7:T12" si="0">F7</f>
         <v> 崔智博 </v>
@@ -1990,8 +1980,8 @@
       </c>
       <c r="W7" s="11"/>
       <c r="X7" s="11"/>
-      <c r="Y7" s="27"/>
-      <c r="Z7" s="28" t="str">
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="27" t="str">
         <f>T8</f>
         <v>周 可韻</v>
       </c>
@@ -2005,8 +1995,8 @@
       </c>
       <c r="AC7" s="11"/>
       <c r="AD7" s="11"/>
-      <c r="AE7" s="27"/>
-      <c r="AF7" s="27"/>
+      <c r="AE7" s="26"/>
+      <c r="AF7" s="26"/>
       <c r="AH7" s="10" t="str">
         <f t="shared" ref="AH7:AH12" si="5">T7</f>
         <v> 崔智博 </v>
@@ -2016,108 +2006,108 @@
         <v>44942</v>
       </c>
       <c r="AJ7" s="11">
-        <f>AI7+2</f>
+        <f t="shared" ref="AJ7:AJ12" si="7">AI7+2</f>
         <v>44944</v>
       </c>
       <c r="AK7" s="11"/>
       <c r="AL7" s="11"/>
-      <c r="AM7" s="27"/>
-      <c r="AN7" s="28" t="str">
+      <c r="AM7" s="26"/>
+      <c r="AN7" s="27" t="str">
         <f>AH8</f>
         <v>周 可韻</v>
       </c>
       <c r="AO7" s="11">
-        <f>AJ7+1</f>
+        <f t="shared" ref="AO7:AO12" si="8">AJ7+1</f>
         <v>44945</v>
       </c>
       <c r="AP7" s="11">
-        <f>AO7+1</f>
+        <f t="shared" ref="AP7:AP12" si="9">AO7+1</f>
         <v>44946</v>
       </c>
       <c r="AQ7" s="11"/>
       <c r="AR7" s="11"/>
-      <c r="AS7" s="27"/>
-      <c r="AT7" s="27"/>
+      <c r="AS7" s="26"/>
+      <c r="AT7" s="26"/>
       <c r="AV7" s="10" t="str">
-        <f t="shared" ref="AV7:AV12" si="7">AH7</f>
+        <f t="shared" ref="AV7:AV12" si="10">AH7</f>
         <v> 崔智博 </v>
       </c>
       <c r="AW7" s="11">
-        <f>AP7+1+2</f>
+        <f t="shared" ref="AW7:AW12" si="11">AP7+1+2</f>
         <v>44949</v>
       </c>
       <c r="AX7" s="11">
-        <f t="shared" ref="AX7:AX12" si="8">AW7</f>
+        <f t="shared" ref="AX7:AX12" si="12">AW7</f>
         <v>44949</v>
       </c>
       <c r="AY7" s="11"/>
       <c r="AZ7" s="11"/>
-      <c r="BA7" s="27"/>
-      <c r="BB7" s="28" t="str">
+      <c r="BA7" s="26"/>
+      <c r="BB7" s="27" t="str">
         <f>AV8</f>
         <v>周 可韻</v>
       </c>
       <c r="BC7" s="11">
-        <f t="shared" ref="BC7:BC12" si="9">AX7+1</f>
+        <f t="shared" ref="BC7:BC12" si="13">AX7+1</f>
         <v>44950</v>
       </c>
       <c r="BD7" s="11">
-        <f t="shared" ref="BD7:BD12" si="10">BC7</f>
+        <f t="shared" ref="BD7:BD12" si="14">BC7</f>
         <v>44950</v>
       </c>
       <c r="BE7" s="11"/>
       <c r="BF7" s="11"/>
-      <c r="BG7" s="27"/>
-      <c r="BH7" s="27"/>
+      <c r="BG7" s="26"/>
+      <c r="BH7" s="26"/>
       <c r="BJ7" s="10" t="str">
-        <f t="shared" ref="BJ7:BJ12" si="11">AV7</f>
+        <f t="shared" ref="BJ7:BJ12" si="15">AV7</f>
         <v> 崔智博 </v>
       </c>
       <c r="BK7" s="11">
-        <f t="shared" ref="BK7:BK12" si="12">BD7+1</f>
+        <f t="shared" ref="BK7:BK12" si="16">BD7+1</f>
         <v>44951</v>
       </c>
       <c r="BL7" s="11">
-        <f t="shared" ref="BL7:BL12" si="13">BK7</f>
+        <f t="shared" ref="BL7:BL12" si="17">BK7</f>
         <v>44951</v>
       </c>
       <c r="BM7" s="11"/>
       <c r="BN7" s="11"/>
-      <c r="BO7" s="27"/>
-      <c r="BP7" s="28" t="str">
+      <c r="BO7" s="26"/>
+      <c r="BP7" s="27" t="str">
         <f>BJ8</f>
         <v>周 可韻</v>
       </c>
       <c r="BQ7" s="11">
-        <f t="shared" ref="BQ7:BQ12" si="14">BL7+1</f>
+        <f t="shared" ref="BQ7:BQ12" si="18">BL7+1</f>
         <v>44952</v>
       </c>
       <c r="BR7" s="11">
-        <f t="shared" ref="BR7:BR12" si="15">BQ7</f>
+        <f t="shared" ref="BR7:BR12" si="19">BQ7</f>
         <v>44952</v>
       </c>
       <c r="BS7" s="11"/>
       <c r="BT7" s="11"/>
-      <c r="BU7" s="27"/>
-      <c r="BV7" s="27"/>
-      <c r="BW7" s="27" t="s">
+      <c r="BU7" s="26"/>
+      <c r="BV7" s="26"/>
+      <c r="BW7" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="BY7" s="29" t="str">
+      <c r="BY7" s="9" t="str">
         <f>E7</f>
         <v>チーム1</v>
       </c>
-      <c r="BZ7" s="30">
+      <c r="BZ7" s="28">
         <f>BQ7+1</f>
         <v>44953</v>
       </c>
-      <c r="CA7" s="30">
+      <c r="CA7" s="28">
         <f>BZ7</f>
         <v>44953</v>
       </c>
-      <c r="CB7" s="30"/>
-      <c r="CC7" s="30"/>
-      <c r="CD7" s="35"/>
+      <c r="CB7" s="28"/>
+      <c r="CC7" s="28"/>
+      <c r="CD7" s="31"/>
       <c r="CE7" s="20" t="str">
         <f>BY10</f>
         <v>チーム2</v>
@@ -2132,23 +2122,23 @@
       </c>
       <c r="CH7" s="11"/>
       <c r="CI7" s="11"/>
-      <c r="CJ7" s="36"/>
-      <c r="CK7" s="35"/>
-      <c r="CM7" s="29" t="str">
+      <c r="CJ7" s="32"/>
+      <c r="CK7" s="31"/>
+      <c r="CM7" s="9" t="str">
         <f>BY7</f>
         <v>チーム1</v>
       </c>
-      <c r="CN7" s="30">
+      <c r="CN7" s="28">
         <f>CF7+1</f>
         <v>44957</v>
       </c>
-      <c r="CO7" s="30">
+      <c r="CO7" s="28">
         <f>CN7</f>
         <v>44957</v>
       </c>
-      <c r="CP7" s="30"/>
-      <c r="CQ7" s="30"/>
-      <c r="CR7" s="35"/>
+      <c r="CP7" s="28"/>
+      <c r="CQ7" s="28"/>
+      <c r="CR7" s="31"/>
       <c r="CS7" s="20" t="str">
         <f>CM7</f>
         <v>チーム1</v>
@@ -2163,10 +2153,10 @@
       </c>
       <c r="CV7" s="11"/>
       <c r="CW7" s="11"/>
-      <c r="CX7" s="36"/>
-      <c r="CY7" s="36"/>
-      <c r="CZ7" s="36"/>
-      <c r="DB7" s="39"/>
+      <c r="CX7" s="32"/>
+      <c r="CY7" s="32"/>
+      <c r="CZ7" s="32"/>
+      <c r="DB7" s="35"/>
     </row>
     <row r="8" ht="18" customHeight="1" spans="2:104">
       <c r="B8" s="12"/>
@@ -2187,8 +2177,8 @@
       </c>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="28" t="str">
+      <c r="K8" s="26"/>
+      <c r="L8" s="27" t="str">
         <f>F9</f>
         <v>山下　尊史</v>
       </c>
@@ -2200,8 +2190,8 @@
       </c>
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
       <c r="T8" s="10" t="str">
         <f t="shared" si="0"/>
         <v>周 可韻</v>
@@ -2216,8 +2206,8 @@
       </c>
       <c r="W8" s="11"/>
       <c r="X8" s="11"/>
-      <c r="Y8" s="27"/>
-      <c r="Z8" s="28" t="str">
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="27" t="str">
         <f>T9</f>
         <v>山下　尊史</v>
       </c>
@@ -2231,8 +2221,8 @@
       </c>
       <c r="AC8" s="11"/>
       <c r="AD8" s="11"/>
-      <c r="AE8" s="27"/>
-      <c r="AF8" s="27"/>
+      <c r="AE8" s="26"/>
+      <c r="AF8" s="26"/>
       <c r="AH8" s="10" t="str">
         <f t="shared" si="5"/>
         <v>周 可韻</v>
@@ -2242,118 +2232,118 @@
         <v>44942</v>
       </c>
       <c r="AJ8" s="11">
-        <f>AI8+2</f>
+        <f t="shared" si="7"/>
         <v>44944</v>
       </c>
       <c r="AK8" s="11"/>
       <c r="AL8" s="11"/>
-      <c r="AM8" s="27"/>
-      <c r="AN8" s="28" t="str">
+      <c r="AM8" s="26"/>
+      <c r="AN8" s="27" t="str">
         <f>AH9</f>
         <v>山下　尊史</v>
       </c>
       <c r="AO8" s="11">
-        <f>AJ8+1</f>
+        <f t="shared" si="8"/>
         <v>44945</v>
       </c>
       <c r="AP8" s="11">
-        <f>AO8+1</f>
+        <f t="shared" si="9"/>
         <v>44946</v>
       </c>
       <c r="AQ8" s="11"/>
       <c r="AR8" s="11"/>
-      <c r="AS8" s="27"/>
-      <c r="AT8" s="27"/>
+      <c r="AS8" s="26"/>
+      <c r="AT8" s="26"/>
       <c r="AV8" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>周 可韻</v>
       </c>
       <c r="AW8" s="11">
-        <f>AP8+1+2</f>
+        <f t="shared" si="11"/>
         <v>44949</v>
       </c>
       <c r="AX8" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>44949</v>
       </c>
       <c r="AY8" s="11"/>
       <c r="AZ8" s="11"/>
-      <c r="BA8" s="27"/>
-      <c r="BB8" s="28" t="str">
+      <c r="BA8" s="26"/>
+      <c r="BB8" s="27" t="str">
         <f>AV9</f>
         <v>山下　尊史</v>
       </c>
       <c r="BC8" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>44950</v>
       </c>
       <c r="BD8" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>44950</v>
       </c>
       <c r="BE8" s="11"/>
       <c r="BF8" s="11"/>
-      <c r="BG8" s="27"/>
-      <c r="BH8" s="27"/>
+      <c r="BG8" s="26"/>
+      <c r="BH8" s="26"/>
       <c r="BJ8" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>周 可韻</v>
       </c>
       <c r="BK8" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>44951</v>
       </c>
       <c r="BL8" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>44951</v>
       </c>
       <c r="BM8" s="11"/>
       <c r="BN8" s="11"/>
-      <c r="BO8" s="27"/>
-      <c r="BP8" s="28" t="str">
+      <c r="BO8" s="26"/>
+      <c r="BP8" s="27" t="str">
         <f>BJ9</f>
         <v>山下　尊史</v>
       </c>
       <c r="BQ8" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>44952</v>
       </c>
       <c r="BR8" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>44952</v>
       </c>
       <c r="BS8" s="11"/>
       <c r="BT8" s="11"/>
-      <c r="BU8" s="27"/>
-      <c r="BV8" s="27"/>
-      <c r="BW8" s="27"/>
-      <c r="BY8" s="31"/>
-      <c r="BZ8" s="32"/>
-      <c r="CA8" s="32"/>
-      <c r="CB8" s="32"/>
-      <c r="CC8" s="32"/>
-      <c r="CD8" s="37"/>
+      <c r="BU8" s="26"/>
+      <c r="BV8" s="26"/>
+      <c r="BW8" s="26"/>
+      <c r="BY8" s="14"/>
+      <c r="BZ8" s="29"/>
+      <c r="CA8" s="29"/>
+      <c r="CB8" s="29"/>
+      <c r="CC8" s="29"/>
+      <c r="CD8" s="33"/>
       <c r="CE8" s="20"/>
       <c r="CF8" s="11"/>
       <c r="CG8" s="11"/>
       <c r="CH8" s="11"/>
       <c r="CI8" s="11"/>
-      <c r="CJ8" s="36"/>
-      <c r="CK8" s="37"/>
-      <c r="CM8" s="31"/>
-      <c r="CN8" s="32"/>
-      <c r="CO8" s="32"/>
-      <c r="CP8" s="32"/>
-      <c r="CQ8" s="32"/>
-      <c r="CR8" s="37"/>
+      <c r="CJ8" s="32"/>
+      <c r="CK8" s="33"/>
+      <c r="CM8" s="14"/>
+      <c r="CN8" s="29"/>
+      <c r="CO8" s="29"/>
+      <c r="CP8" s="29"/>
+      <c r="CQ8" s="29"/>
+      <c r="CR8" s="33"/>
       <c r="CS8" s="20"/>
       <c r="CT8" s="11"/>
       <c r="CU8" s="11"/>
       <c r="CV8" s="11"/>
       <c r="CW8" s="11"/>
-      <c r="CX8" s="36"/>
-      <c r="CY8" s="36"/>
-      <c r="CZ8" s="36"/>
+      <c r="CX8" s="32"/>
+      <c r="CY8" s="32"/>
+      <c r="CZ8" s="32"/>
     </row>
     <row r="9" ht="18" customHeight="1" spans="2:104">
       <c r="B9" s="15"/>
@@ -2374,8 +2364,8 @@
       </c>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="28" t="str">
+      <c r="K9" s="26"/>
+      <c r="L9" s="27" t="str">
         <f>F7</f>
         <v> 崔智博 </v>
       </c>
@@ -2387,8 +2377,8 @@
       </c>
       <c r="O9" s="11"/>
       <c r="P9" s="11"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
       <c r="T9" s="10" t="str">
         <f t="shared" si="0"/>
         <v>山下　尊史</v>
@@ -2403,8 +2393,8 @@
       </c>
       <c r="W9" s="11"/>
       <c r="X9" s="11"/>
-      <c r="Y9" s="27"/>
-      <c r="Z9" s="28" t="str">
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="27" t="str">
         <f>T7</f>
         <v> 崔智博 </v>
       </c>
@@ -2418,8 +2408,8 @@
       </c>
       <c r="AC9" s="11"/>
       <c r="AD9" s="11"/>
-      <c r="AE9" s="27"/>
-      <c r="AF9" s="27"/>
+      <c r="AE9" s="26"/>
+      <c r="AF9" s="26"/>
       <c r="AH9" s="10" t="str">
         <f t="shared" si="5"/>
         <v>山下　尊史</v>
@@ -2429,118 +2419,118 @@
         <v>44942</v>
       </c>
       <c r="AJ9" s="11">
-        <f>AI9+2</f>
+        <f t="shared" si="7"/>
         <v>44944</v>
       </c>
       <c r="AK9" s="11"/>
       <c r="AL9" s="11"/>
-      <c r="AM9" s="27"/>
-      <c r="AN9" s="28" t="str">
+      <c r="AM9" s="26"/>
+      <c r="AN9" s="27" t="str">
         <f>AH7</f>
         <v> 崔智博 </v>
       </c>
       <c r="AO9" s="11">
-        <f>AJ9+1</f>
+        <f t="shared" si="8"/>
         <v>44945</v>
       </c>
       <c r="AP9" s="11">
-        <f>AO9+1</f>
+        <f t="shared" si="9"/>
         <v>44946</v>
       </c>
       <c r="AQ9" s="11"/>
       <c r="AR9" s="11"/>
-      <c r="AS9" s="27"/>
-      <c r="AT9" s="27"/>
+      <c r="AS9" s="26"/>
+      <c r="AT9" s="26"/>
       <c r="AV9" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>山下　尊史</v>
       </c>
       <c r="AW9" s="11">
-        <f>AP9+1+2</f>
+        <f t="shared" si="11"/>
         <v>44949</v>
       </c>
       <c r="AX9" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>44949</v>
       </c>
       <c r="AY9" s="11"/>
       <c r="AZ9" s="11"/>
-      <c r="BA9" s="27"/>
-      <c r="BB9" s="28" t="str">
+      <c r="BA9" s="26"/>
+      <c r="BB9" s="27" t="str">
         <f>AV7</f>
         <v> 崔智博 </v>
       </c>
       <c r="BC9" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>44950</v>
       </c>
       <c r="BD9" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>44950</v>
       </c>
       <c r="BE9" s="11"/>
       <c r="BF9" s="11"/>
-      <c r="BG9" s="27"/>
-      <c r="BH9" s="27"/>
+      <c r="BG9" s="26"/>
+      <c r="BH9" s="26"/>
       <c r="BJ9" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>山下　尊史</v>
       </c>
       <c r="BK9" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>44951</v>
       </c>
       <c r="BL9" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>44951</v>
       </c>
       <c r="BM9" s="11"/>
       <c r="BN9" s="11"/>
-      <c r="BO9" s="27"/>
-      <c r="BP9" s="28" t="str">
+      <c r="BO9" s="26"/>
+      <c r="BP9" s="27" t="str">
         <f>BJ7</f>
         <v> 崔智博 </v>
       </c>
       <c r="BQ9" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>44952</v>
       </c>
       <c r="BR9" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>44952</v>
       </c>
       <c r="BS9" s="11"/>
       <c r="BT9" s="11"/>
-      <c r="BU9" s="27"/>
-      <c r="BV9" s="27"/>
-      <c r="BW9" s="27"/>
-      <c r="BY9" s="33"/>
-      <c r="BZ9" s="34"/>
-      <c r="CA9" s="34"/>
-      <c r="CB9" s="34"/>
-      <c r="CC9" s="34"/>
-      <c r="CD9" s="38"/>
+      <c r="BU9" s="26"/>
+      <c r="BV9" s="26"/>
+      <c r="BW9" s="26"/>
+      <c r="BY9" s="17"/>
+      <c r="BZ9" s="30"/>
+      <c r="CA9" s="30"/>
+      <c r="CB9" s="30"/>
+      <c r="CC9" s="30"/>
+      <c r="CD9" s="34"/>
       <c r="CE9" s="20"/>
       <c r="CF9" s="11"/>
       <c r="CG9" s="11"/>
       <c r="CH9" s="11"/>
       <c r="CI9" s="11"/>
-      <c r="CJ9" s="36"/>
-      <c r="CK9" s="38"/>
-      <c r="CM9" s="33"/>
-      <c r="CN9" s="34"/>
-      <c r="CO9" s="34"/>
-      <c r="CP9" s="34"/>
-      <c r="CQ9" s="34"/>
-      <c r="CR9" s="38"/>
+      <c r="CJ9" s="32"/>
+      <c r="CK9" s="34"/>
+      <c r="CM9" s="17"/>
+      <c r="CN9" s="30"/>
+      <c r="CO9" s="30"/>
+      <c r="CP9" s="30"/>
+      <c r="CQ9" s="30"/>
+      <c r="CR9" s="34"/>
       <c r="CS9" s="20"/>
       <c r="CT9" s="11"/>
       <c r="CU9" s="11"/>
       <c r="CV9" s="11"/>
       <c r="CW9" s="11"/>
-      <c r="CX9" s="36"/>
-      <c r="CY9" s="36"/>
-      <c r="CZ9" s="36"/>
+      <c r="CX9" s="32"/>
+      <c r="CY9" s="32"/>
+      <c r="CZ9" s="32"/>
     </row>
     <row r="10" ht="18" customHeight="1" spans="2:104">
       <c r="B10" s="7">
@@ -2567,8 +2557,8 @@
       </c>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="28" t="str">
+      <c r="K10" s="26"/>
+      <c r="L10" s="27" t="str">
         <f>F11</f>
         <v>ZIN MOE HTET</v>
       </c>
@@ -2580,8 +2570,8 @@
       </c>
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
       <c r="T10" s="10" t="str">
         <f t="shared" si="0"/>
         <v>大石</v>
@@ -2596,8 +2586,8 @@
       </c>
       <c r="W10" s="11"/>
       <c r="X10" s="11"/>
-      <c r="Y10" s="27"/>
-      <c r="Z10" s="28" t="str">
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="27" t="str">
         <f>T11</f>
         <v>ZIN MOE HTET</v>
       </c>
@@ -2611,8 +2601,8 @@
       </c>
       <c r="AC10" s="11"/>
       <c r="AD10" s="11"/>
-      <c r="AE10" s="27"/>
-      <c r="AF10" s="27"/>
+      <c r="AE10" s="26"/>
+      <c r="AF10" s="26"/>
       <c r="AH10" s="10" t="str">
         <f t="shared" si="5"/>
         <v>大石</v>
@@ -2622,106 +2612,106 @@
         <v>44942</v>
       </c>
       <c r="AJ10" s="11">
-        <f>AI10+2</f>
+        <f t="shared" si="7"/>
         <v>44944</v>
       </c>
       <c r="AK10" s="11"/>
       <c r="AL10" s="11"/>
-      <c r="AM10" s="27"/>
-      <c r="AN10" s="28" t="str">
+      <c r="AM10" s="26"/>
+      <c r="AN10" s="27" t="str">
         <f>AH11</f>
         <v>ZIN MOE HTET</v>
       </c>
       <c r="AO10" s="11">
-        <f>AJ10+1</f>
+        <f t="shared" si="8"/>
         <v>44945</v>
       </c>
       <c r="AP10" s="11">
-        <f>AO10+1</f>
+        <f t="shared" si="9"/>
         <v>44946</v>
       </c>
       <c r="AQ10" s="11"/>
       <c r="AR10" s="11"/>
-      <c r="AS10" s="27"/>
-      <c r="AT10" s="27"/>
+      <c r="AS10" s="26"/>
+      <c r="AT10" s="26"/>
       <c r="AV10" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>大石</v>
       </c>
       <c r="AW10" s="11">
-        <f>AP10+1+2</f>
+        <f t="shared" si="11"/>
         <v>44949</v>
       </c>
       <c r="AX10" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>44949</v>
       </c>
       <c r="AY10" s="11"/>
       <c r="AZ10" s="11"/>
-      <c r="BA10" s="27"/>
-      <c r="BB10" s="28" t="str">
+      <c r="BA10" s="26"/>
+      <c r="BB10" s="27" t="str">
         <f>AV11</f>
         <v>ZIN MOE HTET</v>
       </c>
       <c r="BC10" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>44950</v>
       </c>
       <c r="BD10" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>44950</v>
       </c>
       <c r="BE10" s="11"/>
       <c r="BF10" s="11"/>
-      <c r="BG10" s="27"/>
-      <c r="BH10" s="27"/>
+      <c r="BG10" s="26"/>
+      <c r="BH10" s="26"/>
       <c r="BJ10" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>大石</v>
       </c>
       <c r="BK10" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>44951</v>
       </c>
       <c r="BL10" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>44951</v>
       </c>
       <c r="BM10" s="11"/>
       <c r="BN10" s="11"/>
-      <c r="BO10" s="27"/>
-      <c r="BP10" s="28" t="str">
+      <c r="BO10" s="26"/>
+      <c r="BP10" s="27" t="str">
         <f>BJ11</f>
         <v>ZIN MOE HTET</v>
       </c>
       <c r="BQ10" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>44952</v>
       </c>
       <c r="BR10" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>44952</v>
       </c>
       <c r="BS10" s="11"/>
       <c r="BT10" s="11"/>
-      <c r="BU10" s="27"/>
-      <c r="BV10" s="27"/>
-      <c r="BW10" s="27"/>
-      <c r="BY10" s="29" t="str">
+      <c r="BU10" s="26"/>
+      <c r="BV10" s="26"/>
+      <c r="BW10" s="26"/>
+      <c r="BY10" s="9" t="str">
         <f>E10</f>
         <v>チーム2</v>
       </c>
-      <c r="BZ10" s="30">
-        <f t="shared" ref="BZ10" si="16">BQ10+1</f>
+      <c r="BZ10" s="28">
+        <f t="shared" ref="BZ10" si="20">BQ10+1</f>
         <v>44953</v>
       </c>
-      <c r="CA10" s="30">
-        <f t="shared" ref="CA10" si="17">BZ10</f>
+      <c r="CA10" s="28">
+        <f t="shared" ref="CA10" si="21">BZ10</f>
         <v>44953</v>
       </c>
-      <c r="CB10" s="30"/>
-      <c r="CC10" s="30"/>
-      <c r="CD10" s="35"/>
+      <c r="CB10" s="28"/>
+      <c r="CC10" s="28"/>
+      <c r="CD10" s="31"/>
       <c r="CE10" s="20" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -2731,30 +2721,30 @@
         <v>44956</v>
       </c>
       <c r="CG10" s="11">
-        <f t="shared" ref="CG10" si="18">CF10</f>
+        <f t="shared" ref="CG10" si="22">CF10</f>
         <v>44956</v>
       </c>
       <c r="CH10" s="11"/>
       <c r="CI10" s="11"/>
-      <c r="CJ10" s="36"/>
-      <c r="CK10" s="35"/>
-      <c r="CM10" s="29" t="str">
-        <f t="shared" ref="CM10" si="19">BY10</f>
+      <c r="CJ10" s="32"/>
+      <c r="CK10" s="31"/>
+      <c r="CM10" s="9" t="str">
+        <f t="shared" ref="CM10" si="23">BY10</f>
         <v>チーム2</v>
       </c>
-      <c r="CN10" s="30">
+      <c r="CN10" s="28">
         <f>CF10+1</f>
         <v>44957</v>
       </c>
-      <c r="CO10" s="30">
+      <c r="CO10" s="28">
         <f>CN10</f>
         <v>44957</v>
       </c>
-      <c r="CP10" s="30"/>
-      <c r="CQ10" s="30"/>
-      <c r="CR10" s="35"/>
+      <c r="CP10" s="28"/>
+      <c r="CQ10" s="28"/>
+      <c r="CR10" s="31"/>
       <c r="CS10" s="20" t="str">
-        <f t="shared" ref="CS10" si="20">CM10</f>
+        <f t="shared" ref="CS10" si="24">CM10</f>
         <v>チーム2</v>
       </c>
       <c r="CT10" s="11">
@@ -2767,9 +2757,9 @@
       </c>
       <c r="CV10" s="11"/>
       <c r="CW10" s="11"/>
-      <c r="CX10" s="36"/>
-      <c r="CY10" s="36"/>
-      <c r="CZ10" s="36"/>
+      <c r="CX10" s="32"/>
+      <c r="CY10" s="32"/>
+      <c r="CZ10" s="32"/>
     </row>
     <row r="11" ht="18" customHeight="1" spans="2:104">
       <c r="B11" s="12"/>
@@ -2790,8 +2780,8 @@
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="28" t="str">
+      <c r="K11" s="26"/>
+      <c r="L11" s="27" t="str">
         <f>F12</f>
         <v>王　陶錦</v>
       </c>
@@ -2803,8 +2793,8 @@
       </c>
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
       <c r="T11" s="10" t="str">
         <f t="shared" si="0"/>
         <v>ZIN MOE HTET</v>
@@ -2819,8 +2809,8 @@
       </c>
       <c r="W11" s="11"/>
       <c r="X11" s="11"/>
-      <c r="Y11" s="27"/>
-      <c r="Z11" s="28" t="str">
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="27" t="str">
         <f>T12</f>
         <v>王　陶錦</v>
       </c>
@@ -2834,8 +2824,8 @@
       </c>
       <c r="AC11" s="11"/>
       <c r="AD11" s="11"/>
-      <c r="AE11" s="27"/>
-      <c r="AF11" s="27"/>
+      <c r="AE11" s="26"/>
+      <c r="AF11" s="26"/>
       <c r="AH11" s="10" t="str">
         <f t="shared" si="5"/>
         <v>ZIN MOE HTET</v>
@@ -2845,118 +2835,118 @@
         <v>44942</v>
       </c>
       <c r="AJ11" s="11">
-        <f>AI11+2</f>
+        <f t="shared" si="7"/>
         <v>44944</v>
       </c>
       <c r="AK11" s="11"/>
       <c r="AL11" s="11"/>
-      <c r="AM11" s="27"/>
-      <c r="AN11" s="28" t="str">
+      <c r="AM11" s="26"/>
+      <c r="AN11" s="27" t="str">
         <f>AH12</f>
         <v>王　陶錦</v>
       </c>
       <c r="AO11" s="11">
-        <f>AJ11+1</f>
+        <f t="shared" si="8"/>
         <v>44945</v>
       </c>
       <c r="AP11" s="11">
-        <f>AO11+1</f>
+        <f t="shared" si="9"/>
         <v>44946</v>
       </c>
       <c r="AQ11" s="11"/>
       <c r="AR11" s="11"/>
-      <c r="AS11" s="27"/>
-      <c r="AT11" s="27"/>
+      <c r="AS11" s="26"/>
+      <c r="AT11" s="26"/>
       <c r="AV11" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>ZIN MOE HTET</v>
       </c>
       <c r="AW11" s="11">
-        <f>AP11+1+2</f>
+        <f t="shared" si="11"/>
         <v>44949</v>
       </c>
       <c r="AX11" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>44949</v>
       </c>
       <c r="AY11" s="11"/>
       <c r="AZ11" s="11"/>
-      <c r="BA11" s="27"/>
-      <c r="BB11" s="28" t="str">
+      <c r="BA11" s="26"/>
+      <c r="BB11" s="27" t="str">
         <f>AV12</f>
         <v>王　陶錦</v>
       </c>
       <c r="BC11" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>44950</v>
       </c>
       <c r="BD11" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>44950</v>
       </c>
       <c r="BE11" s="11"/>
       <c r="BF11" s="11"/>
-      <c r="BG11" s="27"/>
-      <c r="BH11" s="27"/>
+      <c r="BG11" s="26"/>
+      <c r="BH11" s="26"/>
       <c r="BJ11" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>ZIN MOE HTET</v>
       </c>
       <c r="BK11" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>44951</v>
       </c>
       <c r="BL11" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>44951</v>
       </c>
       <c r="BM11" s="11"/>
       <c r="BN11" s="11"/>
-      <c r="BO11" s="27"/>
-      <c r="BP11" s="28" t="str">
+      <c r="BO11" s="26"/>
+      <c r="BP11" s="27" t="str">
         <f>BJ12</f>
         <v>王　陶錦</v>
       </c>
       <c r="BQ11" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>44952</v>
       </c>
       <c r="BR11" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>44952</v>
       </c>
       <c r="BS11" s="11"/>
       <c r="BT11" s="11"/>
-      <c r="BU11" s="27"/>
-      <c r="BV11" s="27"/>
-      <c r="BW11" s="27"/>
-      <c r="BY11" s="31"/>
-      <c r="BZ11" s="32"/>
-      <c r="CA11" s="32"/>
-      <c r="CB11" s="32"/>
-      <c r="CC11" s="32"/>
-      <c r="CD11" s="37"/>
+      <c r="BU11" s="26"/>
+      <c r="BV11" s="26"/>
+      <c r="BW11" s="26"/>
+      <c r="BY11" s="14"/>
+      <c r="BZ11" s="29"/>
+      <c r="CA11" s="29"/>
+      <c r="CB11" s="29"/>
+      <c r="CC11" s="29"/>
+      <c r="CD11" s="33"/>
       <c r="CE11" s="20"/>
       <c r="CF11" s="11"/>
       <c r="CG11" s="11"/>
       <c r="CH11" s="11"/>
       <c r="CI11" s="11"/>
-      <c r="CJ11" s="36"/>
-      <c r="CK11" s="37"/>
-      <c r="CM11" s="31"/>
-      <c r="CN11" s="32"/>
-      <c r="CO11" s="32"/>
-      <c r="CP11" s="32"/>
-      <c r="CQ11" s="32"/>
-      <c r="CR11" s="37"/>
+      <c r="CJ11" s="32"/>
+      <c r="CK11" s="33"/>
+      <c r="CM11" s="14"/>
+      <c r="CN11" s="29"/>
+      <c r="CO11" s="29"/>
+      <c r="CP11" s="29"/>
+      <c r="CQ11" s="29"/>
+      <c r="CR11" s="33"/>
       <c r="CS11" s="20"/>
       <c r="CT11" s="11"/>
       <c r="CU11" s="11"/>
       <c r="CV11" s="11"/>
       <c r="CW11" s="11"/>
-      <c r="CX11" s="36"/>
-      <c r="CY11" s="36"/>
-      <c r="CZ11" s="36"/>
+      <c r="CX11" s="32"/>
+      <c r="CY11" s="32"/>
+      <c r="CZ11" s="32"/>
     </row>
     <row r="12" ht="18" customHeight="1" spans="2:104">
       <c r="B12" s="15"/>
@@ -2977,8 +2967,8 @@
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="28" t="str">
+      <c r="K12" s="26"/>
+      <c r="L12" s="27" t="str">
         <f>F10</f>
         <v>大石</v>
       </c>
@@ -2990,8 +2980,8 @@
       </c>
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="27"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
       <c r="T12" s="10" t="str">
         <f t="shared" si="0"/>
         <v>王　陶錦</v>
@@ -3006,8 +2996,8 @@
       </c>
       <c r="W12" s="11"/>
       <c r="X12" s="11"/>
-      <c r="Y12" s="27"/>
-      <c r="Z12" s="28" t="str">
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="27" t="str">
         <f>T10</f>
         <v>大石</v>
       </c>
@@ -3021,8 +3011,8 @@
       </c>
       <c r="AC12" s="11"/>
       <c r="AD12" s="11"/>
-      <c r="AE12" s="27"/>
-      <c r="AF12" s="27"/>
+      <c r="AE12" s="26"/>
+      <c r="AF12" s="26"/>
       <c r="AH12" s="10" t="str">
         <f t="shared" si="5"/>
         <v>王　陶錦</v>
@@ -3032,118 +3022,118 @@
         <v>44942</v>
       </c>
       <c r="AJ12" s="11">
-        <f>AI12+2</f>
+        <f t="shared" si="7"/>
         <v>44944</v>
       </c>
       <c r="AK12" s="11"/>
       <c r="AL12" s="11"/>
-      <c r="AM12" s="27"/>
-      <c r="AN12" s="28" t="str">
+      <c r="AM12" s="26"/>
+      <c r="AN12" s="27" t="str">
         <f>AH10</f>
         <v>大石</v>
       </c>
       <c r="AO12" s="11">
-        <f>AJ12+1</f>
+        <f t="shared" si="8"/>
         <v>44945</v>
       </c>
       <c r="AP12" s="11">
-        <f>AO12+1</f>
+        <f t="shared" si="9"/>
         <v>44946</v>
       </c>
       <c r="AQ12" s="11"/>
       <c r="AR12" s="11"/>
-      <c r="AS12" s="27"/>
-      <c r="AT12" s="27"/>
+      <c r="AS12" s="26"/>
+      <c r="AT12" s="26"/>
       <c r="AV12" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>王　陶錦</v>
       </c>
       <c r="AW12" s="11">
-        <f>AP12+1+2</f>
+        <f t="shared" si="11"/>
         <v>44949</v>
       </c>
       <c r="AX12" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>44949</v>
       </c>
       <c r="AY12" s="11"/>
       <c r="AZ12" s="11"/>
-      <c r="BA12" s="27"/>
-      <c r="BB12" s="28" t="str">
+      <c r="BA12" s="26"/>
+      <c r="BB12" s="27" t="str">
         <f>AV10</f>
         <v>大石</v>
       </c>
       <c r="BC12" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>44950</v>
       </c>
       <c r="BD12" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>44950</v>
       </c>
       <c r="BE12" s="11"/>
       <c r="BF12" s="11"/>
-      <c r="BG12" s="27"/>
-      <c r="BH12" s="27"/>
+      <c r="BG12" s="26"/>
+      <c r="BH12" s="26"/>
       <c r="BJ12" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>王　陶錦</v>
       </c>
       <c r="BK12" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>44951</v>
       </c>
       <c r="BL12" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>44951</v>
       </c>
       <c r="BM12" s="11"/>
       <c r="BN12" s="11"/>
-      <c r="BO12" s="27"/>
-      <c r="BP12" s="28" t="str">
+      <c r="BO12" s="26"/>
+      <c r="BP12" s="27" t="str">
         <f>BJ10</f>
         <v>大石</v>
       </c>
       <c r="BQ12" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>44952</v>
       </c>
       <c r="BR12" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>44952</v>
       </c>
       <c r="BS12" s="11"/>
       <c r="BT12" s="11"/>
-      <c r="BU12" s="27"/>
-      <c r="BV12" s="27"/>
-      <c r="BW12" s="27"/>
-      <c r="BY12" s="33"/>
-      <c r="BZ12" s="34"/>
-      <c r="CA12" s="34"/>
-      <c r="CB12" s="34"/>
-      <c r="CC12" s="34"/>
-      <c r="CD12" s="38"/>
+      <c r="BU12" s="26"/>
+      <c r="BV12" s="26"/>
+      <c r="BW12" s="26"/>
+      <c r="BY12" s="17"/>
+      <c r="BZ12" s="30"/>
+      <c r="CA12" s="30"/>
+      <c r="CB12" s="30"/>
+      <c r="CC12" s="30"/>
+      <c r="CD12" s="34"/>
       <c r="CE12" s="20"/>
       <c r="CF12" s="11"/>
       <c r="CG12" s="11"/>
       <c r="CH12" s="11"/>
       <c r="CI12" s="11"/>
-      <c r="CJ12" s="36"/>
-      <c r="CK12" s="38"/>
-      <c r="CM12" s="33"/>
-      <c r="CN12" s="34"/>
-      <c r="CO12" s="34"/>
-      <c r="CP12" s="34"/>
-      <c r="CQ12" s="34"/>
-      <c r="CR12" s="38"/>
+      <c r="CJ12" s="32"/>
+      <c r="CK12" s="34"/>
+      <c r="CM12" s="17"/>
+      <c r="CN12" s="30"/>
+      <c r="CO12" s="30"/>
+      <c r="CP12" s="30"/>
+      <c r="CQ12" s="30"/>
+      <c r="CR12" s="34"/>
       <c r="CS12" s="20"/>
       <c r="CT12" s="11"/>
       <c r="CU12" s="11"/>
       <c r="CV12" s="11"/>
       <c r="CW12" s="11"/>
-      <c r="CX12" s="36"/>
-      <c r="CY12" s="36"/>
-      <c r="CZ12" s="36"/>
+      <c r="CX12" s="32"/>
+      <c r="CY12" s="32"/>
+      <c r="CZ12" s="32"/>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" s="21"/>
@@ -3167,36 +3157,36 @@
       <c r="D20" s="21"/>
     </row>
     <row r="21" spans="3:4">
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
     </row>
     <row r="22" ht="14.25" spans="3:4">
-      <c r="C22" s="23"/>
-      <c r="D22" s="24"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="23"/>
     </row>
     <row r="23" ht="14.25" spans="3:4">
-      <c r="C23" s="23"/>
-      <c r="D23" s="24"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="23"/>
     </row>
     <row r="24" ht="14.25" spans="3:4">
-      <c r="C24" s="23"/>
-      <c r="D24" s="24"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="23"/>
     </row>
     <row r="25" ht="14.25" spans="3:4">
-      <c r="C25" s="23"/>
-      <c r="D25" s="24"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="23"/>
     </row>
     <row r="26" ht="14.25" spans="3:4">
-      <c r="C26" s="23"/>
-      <c r="D26" s="25"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="24"/>
     </row>
     <row r="27" ht="14.25" spans="3:4">
-      <c r="C27" s="23"/>
-      <c r="D27" s="24"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="23"/>
     </row>
     <row r="28" spans="3:4">
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="143">

--- a/スケジュール.xlsx
+++ b/スケジュール.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
@@ -153,8 +153,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="mm/dd"/>
   </numFmts>
@@ -723,16 +723,16 @@
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1304,11 +1304,11 @@
   <dimension ref="B3:DB28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="Y7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AW27" sqref="AW27"/>
+      <selection pane="bottomRight" activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1318,11 +1318,11 @@
     <col min="3" max="3" width="16.8833333333333" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.2166666666667" style="1" customWidth="1"/>
     <col min="5" max="5" width="6.66666666666667" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="11" width="6.55833333333333" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="9.55833333333333" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="18" width="6.55833333333333" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="2" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="11" width="6.55833333333333" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="9.55833333333333" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="18" width="6.55833333333333" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="2" style="1" customWidth="1"/>
     <col min="20" max="20" width="6.66666666666667" style="1" customWidth="1" outlineLevel="1"/>
     <col min="21" max="25" width="6.55833333333333" style="1" customWidth="1" outlineLevel="1"/>
     <col min="26" max="26" width="9.55833333333333" style="1" customWidth="1" outlineLevel="1"/>
@@ -1949,9 +1949,15 @@
       <c r="H7" s="11">
         <v>44936</v>
       </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="26"/>
+      <c r="I7" s="11">
+        <v>44936</v>
+      </c>
+      <c r="J7" s="11">
+        <v>44936</v>
+      </c>
+      <c r="K7" s="26">
+        <v>1</v>
+      </c>
       <c r="L7" s="27" t="str">
         <f>F8</f>
         <v>周 可韻</v>
@@ -2175,9 +2181,15 @@
       <c r="H8" s="11">
         <v>44936</v>
       </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="26"/>
+      <c r="I8" s="11">
+        <v>44936</v>
+      </c>
+      <c r="J8" s="11">
+        <v>44936</v>
+      </c>
+      <c r="K8" s="26">
+        <v>1</v>
+      </c>
       <c r="L8" s="27" t="str">
         <f>F9</f>
         <v>山下　尊史</v>
@@ -2362,9 +2374,15 @@
       <c r="H9" s="11">
         <v>44936</v>
       </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="26"/>
+      <c r="I9" s="11">
+        <v>44936</v>
+      </c>
+      <c r="J9" s="11">
+        <v>44936</v>
+      </c>
+      <c r="K9" s="26">
+        <v>1</v>
+      </c>
       <c r="L9" s="27" t="str">
         <f>F7</f>
         <v> 崔智博 </v>

--- a/スケジュール.xlsx
+++ b/スケジュール.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
@@ -153,10 +153,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="mm/dd"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="mm/dd"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -723,7 +723,7 @@
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -732,7 +732,7 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -744,7 +744,7 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -870,7 +870,7 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -900,7 +900,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -949,13 +949,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1308,7 +1311,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L16" sqref="L16"/>
+      <selection pane="bottomRight" activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1968,10 +1971,18 @@
       <c r="N7" s="11">
         <v>44937</v>
       </c>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
+      <c r="O7" s="11">
+        <v>44937</v>
+      </c>
+      <c r="P7" s="11">
+        <v>44937</v>
+      </c>
+      <c r="Q7" s="26">
+        <v>1</v>
+      </c>
+      <c r="R7" s="28">
+        <v>1</v>
+      </c>
       <c r="T7" s="10" t="str">
         <f t="shared" ref="T7:T12" si="0">F7</f>
         <v> 崔智博 </v>
@@ -2103,17 +2114,17 @@
         <f>E7</f>
         <v>チーム1</v>
       </c>
-      <c r="BZ7" s="28">
+      <c r="BZ7" s="29">
         <f>BQ7+1</f>
         <v>44953</v>
       </c>
-      <c r="CA7" s="28">
+      <c r="CA7" s="29">
         <f>BZ7</f>
         <v>44953</v>
       </c>
-      <c r="CB7" s="28"/>
-      <c r="CC7" s="28"/>
-      <c r="CD7" s="31"/>
+      <c r="CB7" s="29"/>
+      <c r="CC7" s="29"/>
+      <c r="CD7" s="32"/>
       <c r="CE7" s="20" t="str">
         <f>BY10</f>
         <v>チーム2</v>
@@ -2128,23 +2139,23 @@
       </c>
       <c r="CH7" s="11"/>
       <c r="CI7" s="11"/>
-      <c r="CJ7" s="32"/>
-      <c r="CK7" s="31"/>
+      <c r="CJ7" s="33"/>
+      <c r="CK7" s="32"/>
       <c r="CM7" s="9" t="str">
         <f>BY7</f>
         <v>チーム1</v>
       </c>
-      <c r="CN7" s="28">
+      <c r="CN7" s="29">
         <f>CF7+1</f>
         <v>44957</v>
       </c>
-      <c r="CO7" s="28">
+      <c r="CO7" s="29">
         <f>CN7</f>
         <v>44957</v>
       </c>
-      <c r="CP7" s="28"/>
-      <c r="CQ7" s="28"/>
-      <c r="CR7" s="31"/>
+      <c r="CP7" s="29"/>
+      <c r="CQ7" s="29"/>
+      <c r="CR7" s="32"/>
       <c r="CS7" s="20" t="str">
         <f>CM7</f>
         <v>チーム1</v>
@@ -2159,10 +2170,10 @@
       </c>
       <c r="CV7" s="11"/>
       <c r="CW7" s="11"/>
-      <c r="CX7" s="32"/>
-      <c r="CY7" s="32"/>
-      <c r="CZ7" s="32"/>
-      <c r="DB7" s="35"/>
+      <c r="CX7" s="33"/>
+      <c r="CY7" s="33"/>
+      <c r="CZ7" s="33"/>
+      <c r="DB7" s="36"/>
     </row>
     <row r="8" ht="18" customHeight="1" spans="2:104">
       <c r="B8" s="12"/>
@@ -2200,10 +2211,18 @@
       <c r="N8" s="11">
         <v>44937</v>
       </c>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
+      <c r="O8" s="11">
+        <v>44937</v>
+      </c>
+      <c r="P8" s="11">
+        <v>44937</v>
+      </c>
+      <c r="Q8" s="26">
+        <v>1</v>
+      </c>
+      <c r="R8" s="28">
+        <v>1</v>
+      </c>
       <c r="T8" s="10" t="str">
         <f t="shared" si="0"/>
         <v>周 可韻</v>
@@ -2330,32 +2349,32 @@
       <c r="BV8" s="26"/>
       <c r="BW8" s="26"/>
       <c r="BY8" s="14"/>
-      <c r="BZ8" s="29"/>
-      <c r="CA8" s="29"/>
-      <c r="CB8" s="29"/>
-      <c r="CC8" s="29"/>
-      <c r="CD8" s="33"/>
+      <c r="BZ8" s="30"/>
+      <c r="CA8" s="30"/>
+      <c r="CB8" s="30"/>
+      <c r="CC8" s="30"/>
+      <c r="CD8" s="34"/>
       <c r="CE8" s="20"/>
       <c r="CF8" s="11"/>
       <c r="CG8" s="11"/>
       <c r="CH8" s="11"/>
       <c r="CI8" s="11"/>
-      <c r="CJ8" s="32"/>
-      <c r="CK8" s="33"/>
+      <c r="CJ8" s="33"/>
+      <c r="CK8" s="34"/>
       <c r="CM8" s="14"/>
-      <c r="CN8" s="29"/>
-      <c r="CO8" s="29"/>
-      <c r="CP8" s="29"/>
-      <c r="CQ8" s="29"/>
-      <c r="CR8" s="33"/>
+      <c r="CN8" s="30"/>
+      <c r="CO8" s="30"/>
+      <c r="CP8" s="30"/>
+      <c r="CQ8" s="30"/>
+      <c r="CR8" s="34"/>
       <c r="CS8" s="20"/>
       <c r="CT8" s="11"/>
       <c r="CU8" s="11"/>
       <c r="CV8" s="11"/>
       <c r="CW8" s="11"/>
-      <c r="CX8" s="32"/>
-      <c r="CY8" s="32"/>
-      <c r="CZ8" s="32"/>
+      <c r="CX8" s="33"/>
+      <c r="CY8" s="33"/>
+      <c r="CZ8" s="33"/>
     </row>
     <row r="9" ht="18" customHeight="1" spans="2:104">
       <c r="B9" s="15"/>
@@ -2393,10 +2412,18 @@
       <c r="N9" s="11">
         <v>44937</v>
       </c>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
+      <c r="O9" s="11">
+        <v>44937</v>
+      </c>
+      <c r="P9" s="11">
+        <v>44937</v>
+      </c>
+      <c r="Q9" s="26">
+        <v>1</v>
+      </c>
+      <c r="R9" s="28">
+        <v>1</v>
+      </c>
       <c r="T9" s="10" t="str">
         <f t="shared" si="0"/>
         <v>山下　尊史</v>
@@ -2523,32 +2550,32 @@
       <c r="BV9" s="26"/>
       <c r="BW9" s="26"/>
       <c r="BY9" s="17"/>
-      <c r="BZ9" s="30"/>
-      <c r="CA9" s="30"/>
-      <c r="CB9" s="30"/>
-      <c r="CC9" s="30"/>
-      <c r="CD9" s="34"/>
+      <c r="BZ9" s="31"/>
+      <c r="CA9" s="31"/>
+      <c r="CB9" s="31"/>
+      <c r="CC9" s="31"/>
+      <c r="CD9" s="35"/>
       <c r="CE9" s="20"/>
       <c r="CF9" s="11"/>
       <c r="CG9" s="11"/>
       <c r="CH9" s="11"/>
       <c r="CI9" s="11"/>
-      <c r="CJ9" s="32"/>
-      <c r="CK9" s="34"/>
+      <c r="CJ9" s="33"/>
+      <c r="CK9" s="35"/>
       <c r="CM9" s="17"/>
-      <c r="CN9" s="30"/>
-      <c r="CO9" s="30"/>
-      <c r="CP9" s="30"/>
-      <c r="CQ9" s="30"/>
-      <c r="CR9" s="34"/>
+      <c r="CN9" s="31"/>
+      <c r="CO9" s="31"/>
+      <c r="CP9" s="31"/>
+      <c r="CQ9" s="31"/>
+      <c r="CR9" s="35"/>
       <c r="CS9" s="20"/>
       <c r="CT9" s="11"/>
       <c r="CU9" s="11"/>
       <c r="CV9" s="11"/>
       <c r="CW9" s="11"/>
-      <c r="CX9" s="32"/>
-      <c r="CY9" s="32"/>
-      <c r="CZ9" s="32"/>
+      <c r="CX9" s="33"/>
+      <c r="CY9" s="33"/>
+      <c r="CZ9" s="33"/>
     </row>
     <row r="10" ht="18" customHeight="1" spans="2:104">
       <c r="B10" s="7">
@@ -2719,17 +2746,17 @@
         <f>E10</f>
         <v>チーム2</v>
       </c>
-      <c r="BZ10" s="28">
+      <c r="BZ10" s="29">
         <f t="shared" ref="BZ10" si="20">BQ10+1</f>
         <v>44953</v>
       </c>
-      <c r="CA10" s="28">
+      <c r="CA10" s="29">
         <f t="shared" ref="CA10" si="21">BZ10</f>
         <v>44953</v>
       </c>
-      <c r="CB10" s="28"/>
-      <c r="CC10" s="28"/>
-      <c r="CD10" s="31"/>
+      <c r="CB10" s="29"/>
+      <c r="CC10" s="29"/>
+      <c r="CD10" s="32"/>
       <c r="CE10" s="20" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -2744,23 +2771,23 @@
       </c>
       <c r="CH10" s="11"/>
       <c r="CI10" s="11"/>
-      <c r="CJ10" s="32"/>
-      <c r="CK10" s="31"/>
+      <c r="CJ10" s="33"/>
+      <c r="CK10" s="32"/>
       <c r="CM10" s="9" t="str">
         <f t="shared" ref="CM10" si="23">BY10</f>
         <v>チーム2</v>
       </c>
-      <c r="CN10" s="28">
+      <c r="CN10" s="29">
         <f>CF10+1</f>
         <v>44957</v>
       </c>
-      <c r="CO10" s="28">
+      <c r="CO10" s="29">
         <f>CN10</f>
         <v>44957</v>
       </c>
-      <c r="CP10" s="28"/>
-      <c r="CQ10" s="28"/>
-      <c r="CR10" s="31"/>
+      <c r="CP10" s="29"/>
+      <c r="CQ10" s="29"/>
+      <c r="CR10" s="32"/>
       <c r="CS10" s="20" t="str">
         <f t="shared" ref="CS10" si="24">CM10</f>
         <v>チーム2</v>
@@ -2775,9 +2802,9 @@
       </c>
       <c r="CV10" s="11"/>
       <c r="CW10" s="11"/>
-      <c r="CX10" s="32"/>
-      <c r="CY10" s="32"/>
-      <c r="CZ10" s="32"/>
+      <c r="CX10" s="33"/>
+      <c r="CY10" s="33"/>
+      <c r="CZ10" s="33"/>
     </row>
     <row r="11" ht="18" customHeight="1" spans="2:104">
       <c r="B11" s="12"/>
@@ -2939,32 +2966,32 @@
       <c r="BV11" s="26"/>
       <c r="BW11" s="26"/>
       <c r="BY11" s="14"/>
-      <c r="BZ11" s="29"/>
-      <c r="CA11" s="29"/>
-      <c r="CB11" s="29"/>
-      <c r="CC11" s="29"/>
-      <c r="CD11" s="33"/>
+      <c r="BZ11" s="30"/>
+      <c r="CA11" s="30"/>
+      <c r="CB11" s="30"/>
+      <c r="CC11" s="30"/>
+      <c r="CD11" s="34"/>
       <c r="CE11" s="20"/>
       <c r="CF11" s="11"/>
       <c r="CG11" s="11"/>
       <c r="CH11" s="11"/>
       <c r="CI11" s="11"/>
-      <c r="CJ11" s="32"/>
-      <c r="CK11" s="33"/>
+      <c r="CJ11" s="33"/>
+      <c r="CK11" s="34"/>
       <c r="CM11" s="14"/>
-      <c r="CN11" s="29"/>
-      <c r="CO11" s="29"/>
-      <c r="CP11" s="29"/>
-      <c r="CQ11" s="29"/>
-      <c r="CR11" s="33"/>
+      <c r="CN11" s="30"/>
+      <c r="CO11" s="30"/>
+      <c r="CP11" s="30"/>
+      <c r="CQ11" s="30"/>
+      <c r="CR11" s="34"/>
       <c r="CS11" s="20"/>
       <c r="CT11" s="11"/>
       <c r="CU11" s="11"/>
       <c r="CV11" s="11"/>
       <c r="CW11" s="11"/>
-      <c r="CX11" s="32"/>
-      <c r="CY11" s="32"/>
-      <c r="CZ11" s="32"/>
+      <c r="CX11" s="33"/>
+      <c r="CY11" s="33"/>
+      <c r="CZ11" s="33"/>
     </row>
     <row r="12" ht="18" customHeight="1" spans="2:104">
       <c r="B12" s="15"/>
@@ -3126,32 +3153,32 @@
       <c r="BV12" s="26"/>
       <c r="BW12" s="26"/>
       <c r="BY12" s="17"/>
-      <c r="BZ12" s="30"/>
-      <c r="CA12" s="30"/>
-      <c r="CB12" s="30"/>
-      <c r="CC12" s="30"/>
-      <c r="CD12" s="34"/>
+      <c r="BZ12" s="31"/>
+      <c r="CA12" s="31"/>
+      <c r="CB12" s="31"/>
+      <c r="CC12" s="31"/>
+      <c r="CD12" s="35"/>
       <c r="CE12" s="20"/>
       <c r="CF12" s="11"/>
       <c r="CG12" s="11"/>
       <c r="CH12" s="11"/>
       <c r="CI12" s="11"/>
-      <c r="CJ12" s="32"/>
-      <c r="CK12" s="34"/>
+      <c r="CJ12" s="33"/>
+      <c r="CK12" s="35"/>
       <c r="CM12" s="17"/>
-      <c r="CN12" s="30"/>
-      <c r="CO12" s="30"/>
-      <c r="CP12" s="30"/>
-      <c r="CQ12" s="30"/>
-      <c r="CR12" s="34"/>
+      <c r="CN12" s="31"/>
+      <c r="CO12" s="31"/>
+      <c r="CP12" s="31"/>
+      <c r="CQ12" s="31"/>
+      <c r="CR12" s="35"/>
       <c r="CS12" s="20"/>
       <c r="CT12" s="11"/>
       <c r="CU12" s="11"/>
       <c r="CV12" s="11"/>
       <c r="CW12" s="11"/>
-      <c r="CX12" s="32"/>
-      <c r="CY12" s="32"/>
-      <c r="CZ12" s="32"/>
+      <c r="CX12" s="33"/>
+      <c r="CY12" s="33"/>
+      <c r="CZ12" s="33"/>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" s="21"/>

--- a/スケジュール.xlsx
+++ b/スケジュール.xlsx
@@ -153,10 +153,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="mm/dd"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="mm/dd"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -723,28 +723,28 @@
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -900,7 +900,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -952,13 +952,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1307,11 +1307,11 @@
   <dimension ref="B3:DB28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="6" topLeftCell="N7" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R18" sqref="R18"/>
+      <selection pane="bottomRight" activeCell="AA23" sqref="AA23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1995,9 +1995,15 @@
         <f t="shared" ref="V7:V12" si="2">U7</f>
         <v>44938</v>
       </c>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="26"/>
+      <c r="W7" s="11">
+        <v>44938</v>
+      </c>
+      <c r="X7" s="11">
+        <v>44938</v>
+      </c>
+      <c r="Y7" s="26">
+        <v>1</v>
+      </c>
       <c r="Z7" s="27" t="str">
         <f>T8</f>
         <v>周 可韻</v>
@@ -2235,9 +2241,15 @@
         <f t="shared" si="2"/>
         <v>44938</v>
       </c>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="26"/>
+      <c r="W8" s="11">
+        <v>44938</v>
+      </c>
+      <c r="X8" s="11">
+        <v>44938</v>
+      </c>
+      <c r="Y8" s="26">
+        <v>1</v>
+      </c>
       <c r="Z8" s="27" t="str">
         <f>T9</f>
         <v>山下　尊史</v>
@@ -2436,9 +2448,15 @@
         <f t="shared" si="2"/>
         <v>44938</v>
       </c>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="26"/>
+      <c r="W9" s="11">
+        <v>44938</v>
+      </c>
+      <c r="X9" s="11">
+        <v>44938</v>
+      </c>
+      <c r="Y9" s="26">
+        <v>1</v>
+      </c>
       <c r="Z9" s="27" t="str">
         <f>T7</f>
         <v> 崔智博 </v>

--- a/スケジュール.xlsx
+++ b/スケジュール.xlsx
@@ -153,8 +153,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="mm/dd"/>
   </numFmts>
@@ -723,16 +723,16 @@
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -870,7 +870,7 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -947,6 +947,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1304,11 +1307,11 @@
   <dimension ref="B3:DB28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="Y7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="6" topLeftCell="N7" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AW27" sqref="AW27"/>
+      <selection pane="bottomRight" activeCell="AA23" sqref="AA23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1318,11 +1321,11 @@
     <col min="3" max="3" width="16.8833333333333" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.2166666666667" style="1" customWidth="1"/>
     <col min="5" max="5" width="6.66666666666667" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="11" width="6.55833333333333" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="9.55833333333333" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="18" width="6.55833333333333" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="2" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="11" width="6.55833333333333" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="9.55833333333333" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="18" width="6.55833333333333" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="2" style="1" customWidth="1"/>
     <col min="20" max="20" width="6.66666666666667" style="1" customWidth="1" outlineLevel="1"/>
     <col min="21" max="25" width="6.55833333333333" style="1" customWidth="1" outlineLevel="1"/>
     <col min="26" max="26" width="9.55833333333333" style="1" customWidth="1" outlineLevel="1"/>
@@ -1949,9 +1952,15 @@
       <c r="H7" s="11">
         <v>44936</v>
       </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="26"/>
+      <c r="I7" s="11">
+        <v>44936</v>
+      </c>
+      <c r="J7" s="11">
+        <v>44936</v>
+      </c>
+      <c r="K7" s="26">
+        <v>1</v>
+      </c>
       <c r="L7" s="27" t="str">
         <f>F8</f>
         <v>周 可韻</v>
@@ -1962,10 +1971,18 @@
       <c r="N7" s="11">
         <v>44937</v>
       </c>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
+      <c r="O7" s="11">
+        <v>44937</v>
+      </c>
+      <c r="P7" s="11">
+        <v>44937</v>
+      </c>
+      <c r="Q7" s="26">
+        <v>1</v>
+      </c>
+      <c r="R7" s="28">
+        <v>1</v>
+      </c>
       <c r="T7" s="10" t="str">
         <f t="shared" ref="T7:T12" si="0">F7</f>
         <v> 崔智博 </v>
@@ -1978,9 +1995,15 @@
         <f t="shared" ref="V7:V12" si="2">U7</f>
         <v>44938</v>
       </c>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="26"/>
+      <c r="W7" s="11">
+        <v>44938</v>
+      </c>
+      <c r="X7" s="11">
+        <v>44938</v>
+      </c>
+      <c r="Y7" s="26">
+        <v>1</v>
+      </c>
       <c r="Z7" s="27" t="str">
         <f>T8</f>
         <v>周 可韻</v>
@@ -2097,17 +2120,17 @@
         <f>E7</f>
         <v>チーム1</v>
       </c>
-      <c r="BZ7" s="28">
+      <c r="BZ7" s="29">
         <f>BQ7+1</f>
         <v>44953</v>
       </c>
-      <c r="CA7" s="28">
+      <c r="CA7" s="29">
         <f>BZ7</f>
         <v>44953</v>
       </c>
-      <c r="CB7" s="28"/>
-      <c r="CC7" s="28"/>
-      <c r="CD7" s="31"/>
+      <c r="CB7" s="29"/>
+      <c r="CC7" s="29"/>
+      <c r="CD7" s="32"/>
       <c r="CE7" s="20" t="str">
         <f>BY10</f>
         <v>チーム2</v>
@@ -2122,23 +2145,23 @@
       </c>
       <c r="CH7" s="11"/>
       <c r="CI7" s="11"/>
-      <c r="CJ7" s="32"/>
-      <c r="CK7" s="31"/>
+      <c r="CJ7" s="33"/>
+      <c r="CK7" s="32"/>
       <c r="CM7" s="9" t="str">
         <f>BY7</f>
         <v>チーム1</v>
       </c>
-      <c r="CN7" s="28">
+      <c r="CN7" s="29">
         <f>CF7+1</f>
         <v>44957</v>
       </c>
-      <c r="CO7" s="28">
+      <c r="CO7" s="29">
         <f>CN7</f>
         <v>44957</v>
       </c>
-      <c r="CP7" s="28"/>
-      <c r="CQ7" s="28"/>
-      <c r="CR7" s="31"/>
+      <c r="CP7" s="29"/>
+      <c r="CQ7" s="29"/>
+      <c r="CR7" s="32"/>
       <c r="CS7" s="20" t="str">
         <f>CM7</f>
         <v>チーム1</v>
@@ -2153,10 +2176,10 @@
       </c>
       <c r="CV7" s="11"/>
       <c r="CW7" s="11"/>
-      <c r="CX7" s="32"/>
-      <c r="CY7" s="32"/>
-      <c r="CZ7" s="32"/>
-      <c r="DB7" s="35"/>
+      <c r="CX7" s="33"/>
+      <c r="CY7" s="33"/>
+      <c r="CZ7" s="33"/>
+      <c r="DB7" s="36"/>
     </row>
     <row r="8" ht="18" customHeight="1" spans="2:104">
       <c r="B8" s="12"/>
@@ -2175,9 +2198,15 @@
       <c r="H8" s="11">
         <v>44936</v>
       </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="26"/>
+      <c r="I8" s="11">
+        <v>44936</v>
+      </c>
+      <c r="J8" s="11">
+        <v>44936</v>
+      </c>
+      <c r="K8" s="26">
+        <v>1</v>
+      </c>
       <c r="L8" s="27" t="str">
         <f>F9</f>
         <v>山下　尊史</v>
@@ -2188,10 +2217,18 @@
       <c r="N8" s="11">
         <v>44937</v>
       </c>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
+      <c r="O8" s="11">
+        <v>44937</v>
+      </c>
+      <c r="P8" s="11">
+        <v>44937</v>
+      </c>
+      <c r="Q8" s="26">
+        <v>1</v>
+      </c>
+      <c r="R8" s="28">
+        <v>1</v>
+      </c>
       <c r="T8" s="10" t="str">
         <f t="shared" si="0"/>
         <v>周 可韻</v>
@@ -2204,9 +2241,15 @@
         <f t="shared" si="2"/>
         <v>44938</v>
       </c>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="26"/>
+      <c r="W8" s="11">
+        <v>44938</v>
+      </c>
+      <c r="X8" s="11">
+        <v>44938</v>
+      </c>
+      <c r="Y8" s="26">
+        <v>1</v>
+      </c>
       <c r="Z8" s="27" t="str">
         <f>T9</f>
         <v>山下　尊史</v>
@@ -2318,32 +2361,32 @@
       <c r="BV8" s="26"/>
       <c r="BW8" s="26"/>
       <c r="BY8" s="14"/>
-      <c r="BZ8" s="29"/>
-      <c r="CA8" s="29"/>
-      <c r="CB8" s="29"/>
-      <c r="CC8" s="29"/>
-      <c r="CD8" s="33"/>
+      <c r="BZ8" s="30"/>
+      <c r="CA8" s="30"/>
+      <c r="CB8" s="30"/>
+      <c r="CC8" s="30"/>
+      <c r="CD8" s="34"/>
       <c r="CE8" s="20"/>
       <c r="CF8" s="11"/>
       <c r="CG8" s="11"/>
       <c r="CH8" s="11"/>
       <c r="CI8" s="11"/>
-      <c r="CJ8" s="32"/>
-      <c r="CK8" s="33"/>
+      <c r="CJ8" s="33"/>
+      <c r="CK8" s="34"/>
       <c r="CM8" s="14"/>
-      <c r="CN8" s="29"/>
-      <c r="CO8" s="29"/>
-      <c r="CP8" s="29"/>
-      <c r="CQ8" s="29"/>
-      <c r="CR8" s="33"/>
+      <c r="CN8" s="30"/>
+      <c r="CO8" s="30"/>
+      <c r="CP8" s="30"/>
+      <c r="CQ8" s="30"/>
+      <c r="CR8" s="34"/>
       <c r="CS8" s="20"/>
       <c r="CT8" s="11"/>
       <c r="CU8" s="11"/>
       <c r="CV8" s="11"/>
       <c r="CW8" s="11"/>
-      <c r="CX8" s="32"/>
-      <c r="CY8" s="32"/>
-      <c r="CZ8" s="32"/>
+      <c r="CX8" s="33"/>
+      <c r="CY8" s="33"/>
+      <c r="CZ8" s="33"/>
     </row>
     <row r="9" ht="18" customHeight="1" spans="2:104">
       <c r="B9" s="15"/>
@@ -2362,9 +2405,15 @@
       <c r="H9" s="11">
         <v>44936</v>
       </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="26"/>
+      <c r="I9" s="11">
+        <v>44936</v>
+      </c>
+      <c r="J9" s="11">
+        <v>44936</v>
+      </c>
+      <c r="K9" s="26">
+        <v>1</v>
+      </c>
       <c r="L9" s="27" t="str">
         <f>F7</f>
         <v> 崔智博 </v>
@@ -2375,10 +2424,18 @@
       <c r="N9" s="11">
         <v>44937</v>
       </c>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
+      <c r="O9" s="11">
+        <v>44937</v>
+      </c>
+      <c r="P9" s="11">
+        <v>44937</v>
+      </c>
+      <c r="Q9" s="26">
+        <v>1</v>
+      </c>
+      <c r="R9" s="28">
+        <v>1</v>
+      </c>
       <c r="T9" s="10" t="str">
         <f t="shared" si="0"/>
         <v>山下　尊史</v>
@@ -2391,9 +2448,15 @@
         <f t="shared" si="2"/>
         <v>44938</v>
       </c>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="26"/>
+      <c r="W9" s="11">
+        <v>44938</v>
+      </c>
+      <c r="X9" s="11">
+        <v>44938</v>
+      </c>
+      <c r="Y9" s="26">
+        <v>1</v>
+      </c>
       <c r="Z9" s="27" t="str">
         <f>T7</f>
         <v> 崔智博 </v>
@@ -2505,32 +2568,32 @@
       <c r="BV9" s="26"/>
       <c r="BW9" s="26"/>
       <c r="BY9" s="17"/>
-      <c r="BZ9" s="30"/>
-      <c r="CA9" s="30"/>
-      <c r="CB9" s="30"/>
-      <c r="CC9" s="30"/>
-      <c r="CD9" s="34"/>
+      <c r="BZ9" s="31"/>
+      <c r="CA9" s="31"/>
+      <c r="CB9" s="31"/>
+      <c r="CC9" s="31"/>
+      <c r="CD9" s="35"/>
       <c r="CE9" s="20"/>
       <c r="CF9" s="11"/>
       <c r="CG9" s="11"/>
       <c r="CH9" s="11"/>
       <c r="CI9" s="11"/>
-      <c r="CJ9" s="32"/>
-      <c r="CK9" s="34"/>
+      <c r="CJ9" s="33"/>
+      <c r="CK9" s="35"/>
       <c r="CM9" s="17"/>
-      <c r="CN9" s="30"/>
-      <c r="CO9" s="30"/>
-      <c r="CP9" s="30"/>
-      <c r="CQ9" s="30"/>
-      <c r="CR9" s="34"/>
+      <c r="CN9" s="31"/>
+      <c r="CO9" s="31"/>
+      <c r="CP9" s="31"/>
+      <c r="CQ9" s="31"/>
+      <c r="CR9" s="35"/>
       <c r="CS9" s="20"/>
       <c r="CT9" s="11"/>
       <c r="CU9" s="11"/>
       <c r="CV9" s="11"/>
       <c r="CW9" s="11"/>
-      <c r="CX9" s="32"/>
-      <c r="CY9" s="32"/>
-      <c r="CZ9" s="32"/>
+      <c r="CX9" s="33"/>
+      <c r="CY9" s="33"/>
+      <c r="CZ9" s="33"/>
     </row>
     <row r="10" ht="18" customHeight="1" spans="2:104">
       <c r="B10" s="7">
@@ -2701,17 +2764,17 @@
         <f>E10</f>
         <v>チーム2</v>
       </c>
-      <c r="BZ10" s="28">
+      <c r="BZ10" s="29">
         <f t="shared" ref="BZ10" si="20">BQ10+1</f>
         <v>44953</v>
       </c>
-      <c r="CA10" s="28">
+      <c r="CA10" s="29">
         <f t="shared" ref="CA10" si="21">BZ10</f>
         <v>44953</v>
       </c>
-      <c r="CB10" s="28"/>
-      <c r="CC10" s="28"/>
-      <c r="CD10" s="31"/>
+      <c r="CB10" s="29"/>
+      <c r="CC10" s="29"/>
+      <c r="CD10" s="32"/>
       <c r="CE10" s="20" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -2726,23 +2789,23 @@
       </c>
       <c r="CH10" s="11"/>
       <c r="CI10" s="11"/>
-      <c r="CJ10" s="32"/>
-      <c r="CK10" s="31"/>
+      <c r="CJ10" s="33"/>
+      <c r="CK10" s="32"/>
       <c r="CM10" s="9" t="str">
         <f t="shared" ref="CM10" si="23">BY10</f>
         <v>チーム2</v>
       </c>
-      <c r="CN10" s="28">
+      <c r="CN10" s="29">
         <f>CF10+1</f>
         <v>44957</v>
       </c>
-      <c r="CO10" s="28">
+      <c r="CO10" s="29">
         <f>CN10</f>
         <v>44957</v>
       </c>
-      <c r="CP10" s="28"/>
-      <c r="CQ10" s="28"/>
-      <c r="CR10" s="31"/>
+      <c r="CP10" s="29"/>
+      <c r="CQ10" s="29"/>
+      <c r="CR10" s="32"/>
       <c r="CS10" s="20" t="str">
         <f t="shared" ref="CS10" si="24">CM10</f>
         <v>チーム2</v>
@@ -2757,9 +2820,9 @@
       </c>
       <c r="CV10" s="11"/>
       <c r="CW10" s="11"/>
-      <c r="CX10" s="32"/>
-      <c r="CY10" s="32"/>
-      <c r="CZ10" s="32"/>
+      <c r="CX10" s="33"/>
+      <c r="CY10" s="33"/>
+      <c r="CZ10" s="33"/>
     </row>
     <row r="11" ht="18" customHeight="1" spans="2:104">
       <c r="B11" s="12"/>
@@ -2921,32 +2984,32 @@
       <c r="BV11" s="26"/>
       <c r="BW11" s="26"/>
       <c r="BY11" s="14"/>
-      <c r="BZ11" s="29"/>
-      <c r="CA11" s="29"/>
-      <c r="CB11" s="29"/>
-      <c r="CC11" s="29"/>
-      <c r="CD11" s="33"/>
+      <c r="BZ11" s="30"/>
+      <c r="CA11" s="30"/>
+      <c r="CB11" s="30"/>
+      <c r="CC11" s="30"/>
+      <c r="CD11" s="34"/>
       <c r="CE11" s="20"/>
       <c r="CF11" s="11"/>
       <c r="CG11" s="11"/>
       <c r="CH11" s="11"/>
       <c r="CI11" s="11"/>
-      <c r="CJ11" s="32"/>
-      <c r="CK11" s="33"/>
+      <c r="CJ11" s="33"/>
+      <c r="CK11" s="34"/>
       <c r="CM11" s="14"/>
-      <c r="CN11" s="29"/>
-      <c r="CO11" s="29"/>
-      <c r="CP11" s="29"/>
-      <c r="CQ11" s="29"/>
-      <c r="CR11" s="33"/>
+      <c r="CN11" s="30"/>
+      <c r="CO11" s="30"/>
+      <c r="CP11" s="30"/>
+      <c r="CQ11" s="30"/>
+      <c r="CR11" s="34"/>
       <c r="CS11" s="20"/>
       <c r="CT11" s="11"/>
       <c r="CU11" s="11"/>
       <c r="CV11" s="11"/>
       <c r="CW11" s="11"/>
-      <c r="CX11" s="32"/>
-      <c r="CY11" s="32"/>
-      <c r="CZ11" s="32"/>
+      <c r="CX11" s="33"/>
+      <c r="CY11" s="33"/>
+      <c r="CZ11" s="33"/>
     </row>
     <row r="12" ht="18" customHeight="1" spans="2:104">
       <c r="B12" s="15"/>
@@ -3108,32 +3171,32 @@
       <c r="BV12" s="26"/>
       <c r="BW12" s="26"/>
       <c r="BY12" s="17"/>
-      <c r="BZ12" s="30"/>
-      <c r="CA12" s="30"/>
-      <c r="CB12" s="30"/>
-      <c r="CC12" s="30"/>
-      <c r="CD12" s="34"/>
+      <c r="BZ12" s="31"/>
+      <c r="CA12" s="31"/>
+      <c r="CB12" s="31"/>
+      <c r="CC12" s="31"/>
+      <c r="CD12" s="35"/>
       <c r="CE12" s="20"/>
       <c r="CF12" s="11"/>
       <c r="CG12" s="11"/>
       <c r="CH12" s="11"/>
       <c r="CI12" s="11"/>
-      <c r="CJ12" s="32"/>
-      <c r="CK12" s="34"/>
+      <c r="CJ12" s="33"/>
+      <c r="CK12" s="35"/>
       <c r="CM12" s="17"/>
-      <c r="CN12" s="30"/>
-      <c r="CO12" s="30"/>
-      <c r="CP12" s="30"/>
-      <c r="CQ12" s="30"/>
-      <c r="CR12" s="34"/>
+      <c r="CN12" s="31"/>
+      <c r="CO12" s="31"/>
+      <c r="CP12" s="31"/>
+      <c r="CQ12" s="31"/>
+      <c r="CR12" s="35"/>
       <c r="CS12" s="20"/>
       <c r="CT12" s="11"/>
       <c r="CU12" s="11"/>
       <c r="CV12" s="11"/>
       <c r="CW12" s="11"/>
-      <c r="CX12" s="32"/>
-      <c r="CY12" s="32"/>
-      <c r="CZ12" s="32"/>
+      <c r="CX12" s="33"/>
+      <c r="CY12" s="33"/>
+      <c r="CZ12" s="33"/>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" s="21"/>
